--- a/data/hotels_by_city/Dallas/Dallas_shard_544.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_544.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1469 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r522862691-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>73776</t>
+  </si>
+  <si>
+    <t>522862691</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasty!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Word!!! Nasty!! Our room was full of mesquites and we didn't even have hot water in our room.. The Staff is friendly but they need to do better with getting the rooms ready for the next guest. Stay Away!! </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r515678411-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>515678411</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>DISGUSTING ALL THE WAY AROUND</t>
+  </si>
+  <si>
+    <t>I rarely write negative reviews.. I try to calm down before I do. It has been one month and I decided that I needed to warn anyone taking their children here. It is NO PLACE for a family. I will NEVER pick this hotel chain for anything again. We knew the area, we used to live there. We got a good rate HOWEVER finding hair in the bedding, cigarette burns, stained towels... We checked out almost as quickly as we checked in. Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Arlington, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>I rarely write negative reviews.. I try to calm down before I do. It has been one month and I decided that I needed to warn anyone taking their children here. It is NO PLACE for a family. I will NEVER pick this hotel chain for anything again. We knew the area, we used to live there. We got a good rate HOWEVER finding hair in the bedding, cigarette burns, stained towels... We checked out almost as quickly as we checked in. Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r505921186-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>505921186</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Excellent Experience!</t>
+  </si>
+  <si>
+    <t>After driving 15 hours straight I was desperately needing sleep and a safe hotel to stay at because I was traveling alone with my 18 month old. The hotel staff was very understanding and let us check in before chack out time allowing us to rest all day and through the night to be fully rested to continue the ride. The area had a Walmart 5 minutes away and a mall across the street. It seemed like a safe area. No scary people around. The room was very comfortable and looked new and clean. There was a fridge and microwave as well. It was a wonderful experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r489655030-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>489655030</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Came here because I attended th USC vs. Alabama football game.</t>
+  </si>
+  <si>
+    <t>Unfortunately, USC got whipped and so did I staying at this crummy Motel 6. It was not close to any decent restaurants, and I didn't have a car, so I did lots of walking and got toasted and roasted by the hot September sunlight.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r487705231-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>487705231</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Terrible Room</t>
+  </si>
+  <si>
+    <t>I checked into this Motel 6 to give it a try as the rates were cheap and we needed an extended stay while visiting family in Arlington.  This was my first and last Motel 6 experience ever.  The room was gross.  The light fixtures were falling off the walls and they only placed one light bulb in a two bulb lamp so the room was dark.  It also felt very gloomy and damp.  Extension cords were used to plug in the television from an outlet across the room.  It was so bad we checked out early.  Such a bad first experience in a Motel 6 and definitely the last.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r470013271-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>470013271</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Bed bugs</t>
+  </si>
+  <si>
+    <t>Please do not stay here I was very disappointed and woke up by bed bugs then they did not want to refund me my money. I will never stay at any motel 6 again. It's sad I had to pay 92.00 n was awaken by bed bugs. I'm so disgusted with this place motel 6 will never get my business ever.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r428385279-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>428385279</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Never stay here</t>
+  </si>
+  <si>
+    <t>Had to ask for clean sheets it was my daughters 16th birthday and we booked two rooms her smoke detector had a plastic bag over it we called the desk they said leave it.what a joke of a place save your money never stay here</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r421349448-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>421349448</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Horrible! Worst nastiest place ever!</t>
+  </si>
+  <si>
+    <t>The rudest staff ever! Air did NOT work! Entire back half of the floor near the window was soaked! No light bulbs in bathroom! MOLD all in the bathroom! Curtains were torn off the track! The staff did NOT care! This hotel is independently owned. The staff &amp; owners do NOT care about customer service or the upkeep of their hotel! Do NOT stay here, you will REGRET IT!!! Read the other reviews, place is a DUMP! Sad to know there are hotels in business that are in this bad of shape!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r420327212-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>420327212</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Horrible! Warning - it's not Best Western anymore so positive reviews may be old</t>
+  </si>
+  <si>
+    <t>(Zero rating if I could.) We had stayed at this location a few times when it was a Best Western. It was great. This time, I saw it had changed to Motel 6, but we’ve had good luck with Motel 6 since their big remodeling campaign. We reserved the room through Hotels.com. The confirmation promised a fridge, microwave, and noon checkout time.
+The room had no appliances. And the staff was adamant that checkout time was 11 a.m. 
+They finally got us a fridge, but no microwave, and only budged on the checkout time when the Hotels.com rep whom I had called insisted on it. The staff kept telling me how I, the customer, was wrong to expect appliances without requesting them in advance because “they get stolen” and how Hotels.com was wrong to promise a noon checkout time.
+Could we talk to the manager? No, the clerk said, tapping her watch. It was late (past ten when we checked in) and no, she would not call the manager, either. 
+A fellow who I assume was a night manager (although from appearances, this looks like a family running the joint) offered to bring a fridge in from another room. Because my wife, daughter, and little grandson were already getting settled and we were all tired — this was after 10:30 p.m. — I said just bring us a fridge.
+I told them it was clear they know nothing about customer...(Zero rating if I could.) We had stayed at this location a few times when it was a Best Western. It was great. This time, I saw it had changed to Motel 6, but we’ve had good luck with Motel 6 since their big remodeling campaign. We reserved the room through Hotels.com. The confirmation promised a fridge, microwave, and noon checkout time.The room had no appliances. And the staff was adamant that checkout time was 11 a.m. They finally got us a fridge, but no microwave, and only budged on the checkout time when the Hotels.com rep whom I had called insisted on it. The staff kept telling me how I, the customer, was wrong to expect appliances without requesting them in advance because “they get stolen” and how Hotels.com was wrong to promise a noon checkout time.Could we talk to the manager? No, the clerk said, tapping her watch. It was late (past ten when we checked in) and no, she would not call the manager, either. A fellow who I assume was a night manager (although from appearances, this looks like a family running the joint) offered to bring a fridge in from another room. Because my wife, daughter, and little grandson were already getting settled and we were all tired — this was after 10:30 p.m. — I said just bring us a fridge.I told them it was clear they know nothing about customer service in the United States. I suggested they take a course in hotel management and customer service if they are going to run a hotel in this country. But wait, there’s more.When I got back to the room, it had a fridge. That’s when my daughter noticed that the front third of the room had sopping-wet carpet and what appeared to be mold growing under a footstool. The carpet was drenched from wall to wall. I knew I could not keep the room.  And the safety latch on the door was broken off, so there was no way to secure it. I later read online reviews for this place citing the same problems over the last several months.I demanded a different room. They quickly offered the room next door, but it smelled of tobacco smoke in a nonsmoking hotel.Finally, we got a room, and had to move all our stuff with no help from the two employees (not counting the desk clerk).This hotel is a disgrace to Motel 6. Obviously, the new owner has no respect for customers or the Motel 6 brand, and the staff has no idea what Americans expect at a hotel. Finally, a refund.When I first called Motel 6 days ago, they put me on hold and called the hotel manager. She said that she would issue a refund, but I’d have to get Hotels.com to process it because of the credit card. Later, however, she told Hotels.com she would not issue any refund. She also sent me a form letter by email that had nothing to do with my concerns but saying again, no refund. The manager never once acknowledged the problems, much less apologize for them. She claimed she offered me a refund the night we were there, but that’s not true. And besides, it was late at night and we had a small child with us. What were we supposed to do, sleep in the car?Over the following few days, I sent three unanswered emails to Motel 6 guest relations. I made several more phone calls over the last couple of weeks, talking to reps who could not transfer my call to a supervisor, and four more phone calls just today (Sept. 19) to Motel 6. I talked all the way from the first-line guest relations staff up to the G6 Hospitality executive offices.And the best I could get from the executive office was a refund of about three fourths of the night’s stay, to be sent by check in 30 business days. That was following a smaller refund offer that I declined. The G6 policy is that the customer has to go to the franchise owner for any hope of a full refund, even though that manager had already lied and demonstrated a total lack of regard for her guests’ experience.  I asked Motel 6 guest relations how bad things would have to get before corporate would take care of the customer. I never got an answer. This location has a manager or franchise owner who just should not be in the business. Why go into this business if you want to treat your customers like garbage? Motel 6 and G6 Hospitality obviously do not have ways for their phone staff to take care of a customer when all else has failed. And they kept telling me I had to call that lousy manager again. No way was I ever going to speak to anybody at that location. She had already said no several times and misled the people I was talking to. By the way, I have sent the code enforcement folks in Arlington an email about the water and possible mold.I am going to close this affair out by writing a letter to the G6 CEO in Carrollton, Texas. Then wait for my check …MoreShow less</t>
+  </si>
+  <si>
+    <t>(Zero rating if I could.) We had stayed at this location a few times when it was a Best Western. It was great. This time, I saw it had changed to Motel 6, but we’ve had good luck with Motel 6 since their big remodeling campaign. We reserved the room through Hotels.com. The confirmation promised a fridge, microwave, and noon checkout time.
+The room had no appliances. And the staff was adamant that checkout time was 11 a.m. 
+They finally got us a fridge, but no microwave, and only budged on the checkout time when the Hotels.com rep whom I had called insisted on it. The staff kept telling me how I, the customer, was wrong to expect appliances without requesting them in advance because “they get stolen” and how Hotels.com was wrong to promise a noon checkout time.
+Could we talk to the manager? No, the clerk said, tapping her watch. It was late (past ten when we checked in) and no, she would not call the manager, either. 
+A fellow who I assume was a night manager (although from appearances, this looks like a family running the joint) offered to bring a fridge in from another room. Because my wife, daughter, and little grandson were already getting settled and we were all tired — this was after 10:30 p.m. — I said just bring us a fridge.
+I told them it was clear they know nothing about customer...(Zero rating if I could.) We had stayed at this location a few times when it was a Best Western. It was great. This time, I saw it had changed to Motel 6, but we’ve had good luck with Motel 6 since their big remodeling campaign. We reserved the room through Hotels.com. The confirmation promised a fridge, microwave, and noon checkout time.The room had no appliances. And the staff was adamant that checkout time was 11 a.m. They finally got us a fridge, but no microwave, and only budged on the checkout time when the Hotels.com rep whom I had called insisted on it. The staff kept telling me how I, the customer, was wrong to expect appliances without requesting them in advance because “they get stolen” and how Hotels.com was wrong to promise a noon checkout time.Could we talk to the manager? No, the clerk said, tapping her watch. It was late (past ten when we checked in) and no, she would not call the manager, either. A fellow who I assume was a night manager (although from appearances, this looks like a family running the joint) offered to bring a fridge in from another room. Because my wife, daughter, and little grandson were already getting settled and we were all tired — this was after 10:30 p.m. — I said just bring us a fridge.I told them it was clear they know nothing about customer service in the United States. I suggested they take a course in hotel management and customer service if they are going to run a hotel in this country. But wait, there’s more.When I got back to the room, it had a fridge. That’s when my daughter noticed that the front third of the room had sopping-wet carpet and what appeared to be mold growing under a footstool. The carpet was drenched from wall to wall. I knew I could not keep the room.  And the safety latch on the door was broken off, so there was no way to secure it. I later read online reviews for this place citing the same problems over the last several months.I demanded a different room. They quickly offered the room next door, but it smelled of tobacco smoke in a nonsmoking hotel.Finally, we got a room, and had to move all our stuff with no help from the two employees (not counting the desk clerk).This hotel is a disgrace to Motel 6. Obviously, the new owner has no respect for customers or the Motel 6 brand, and the staff has no idea what Americans expect at a hotel. Finally, a refund.When I first called Motel 6 days ago, they put me on hold and called the hotel manager. She said that she would issue a refund, but I’d have to get Hotels.com to process it because of the credit card. Later, however, she told Hotels.com she would not issue any refund. She also sent me a form letter by email that had nothing to do with my concerns but saying again, no refund. The manager never once acknowledged the problems, much less apologize for them. She claimed she offered me a refund the night we were there, but that’s not true. And besides, it was late at night and we had a small child with us. What were we supposed to do, sleep in the car?Over the following few days, I sent three unanswered emails to Motel 6 guest relations. I made several more phone calls over the last couple of weeks, talking to reps who could not transfer my call to a supervisor, and four more phone calls just today (Sept. 19) to Motel 6. I talked all the way from the first-line guest relations staff up to the G6 Hospitality executive offices.And the best I could get from the executive office was a refund of about three fourths of the night’s stay, to be sent by check in 30 business days. That was following a smaller refund offer that I declined. The G6 policy is that the customer has to go to the franchise owner for any hope of a full refund, even though that manager had already lied and demonstrated a total lack of regard for her guests’ experience.  I asked Motel 6 guest relations how bad things would have to get before corporate would take care of the customer. I never got an answer. This location has a manager or franchise owner who just should not be in the business. Why go into this business if you want to treat your customers like garbage? Motel 6 and G6 Hospitality obviously do not have ways for their phone staff to take care of a customer when all else has failed. And they kept telling me I had to call that lousy manager again. No way was I ever going to speak to anybody at that location. She had already said no several times and misled the people I was talking to. By the way, I have sent the code enforcement folks in Arlington an email about the water and possible mold.I am going to close this affair out by writing a letter to the G6 CEO in Carrollton, Texas. Then wait for my check …More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r396334668-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>396334668</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Don't stay here. Carpet wasn't attached to the floor. Non smoking rooms are so smokey. We even cleaned out our own filter in the Ac to help it work better. Bug and a green pool. You don't want to stay here. Bathroom was dirty and when I asked for another room it was worse. The man working the front desk was a nice guy but he may be the only one.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r394089889-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>394089889</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Accommodating and quiet</t>
+  </si>
+  <si>
+    <t>Management and staff were excellent and accommodating. Allowed me to have my large dogs as well. Very quiet and clean rooms. My key card kept messing up (my fault... Phones demagnetize them) but they were very prompt in addressing the issue. Fridge and microwave included, also had couch for seating room that folded out. All in all, best one I've stayed in.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r394025960-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>394025960</t>
+  </si>
+  <si>
+    <t>ZERO</t>
+  </si>
+  <si>
+    <t>During our stay from July 13 -17th  2016 While the room was occupied the Manager/Owner Rima Yacliwala allowed a third party cleaning company to steam clean the carpet of the room.  We only found this out when we returned from a business meeting and noticed the company cleaning the carpet next to ours. When we entered our room we noticed our carpet was still wet from the steam cleaners.  The staff , Manager/Owner and cleaning company was completely rude, and told us well “we can’t just shut down”!  They offered no compensation when asked. This location lacks any regard for the customers, later that day we found out from other staying that weekend that the same occurred to their rooms. This Location and owner need some serious customer training.  NO NOT STAY HERE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>During our stay from July 13 -17th  2016 While the room was occupied the Manager/Owner Rima Yacliwala allowed a third party cleaning company to steam clean the carpet of the room.  We only found this out when we returned from a business meeting and noticed the company cleaning the carpet next to ours. When we entered our room we noticed our carpet was still wet from the steam cleaners.  The staff , Manager/Owner and cleaning company was completely rude, and told us well “we can’t just shut down”!  They offered no compensation when asked. This location lacks any regard for the customers, later that day we found out from other staying that weekend that the same occurred to their rooms. This Location and owner need some serious customer training.  NO NOT STAY HERE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r387179053-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>387179053</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Found Used Condom in My Room</t>
+  </si>
+  <si>
+    <t>A few issues here. After check-in, I went into the room, which smelled like smoke considering it was non-smoking, and checked for bed bugs.  No bed bugs but as I was pulling back the sheets, I noticed the padding under the sheets was stained pretty badly.  I also found a USED CONDOM between the headboard of the bed and the wall.  The front desk clerk came by to clean it and apologized - but that was it - I was never offered a new room, NOR during my entire stay, and several days after, did a manager call me to address the issue.  I finally called the manager, Rima, and she was very unprofessional.  At first I thought that maybe she was unaware of the situation, but she made it clear that she knew about it and WAS THERE ONSITE that night! She said, "well I sent the the front desk clerk came to clean it..." and then said, "well what do you want me to do?"  I explained that yes, it was cleaned, but a manager should have further handled the situation DURING my stay.  First of all, she should have accompanied the clerk and apologized personally, as a manager should.    I was the one to initiate the call DAYS later and let her know how disappointed I was, she didn't seem to care much and gave me attitude.  She finally offered a discount for my next stay (remember,...A few issues here. After check-in, I went into the room, which smelled like smoke considering it was non-smoking, and checked for bed bugs.  No bed bugs but as I was pulling back the sheets, I noticed the padding under the sheets was stained pretty badly.  I also found a USED CONDOM between the headboard of the bed and the wall.  The front desk clerk came by to clean it and apologized - but that was it - I was never offered a new room, NOR during my entire stay, and several days after, did a manager call me to address the issue.  I finally called the manager, Rima, and she was very unprofessional.  At first I thought that maybe she was unaware of the situation, but she made it clear that she knew about it and WAS THERE ONSITE that night! She said, "well I sent the the front desk clerk came to clean it..." and then said, "well what do you want me to do?"  I explained that yes, it was cleaned, but a manager should have further handled the situation DURING my stay.  First of all, she should have accompanied the clerk and apologized personally, as a manager should.    I was the one to initiate the call DAYS later and let her know how disappointed I was, she didn't seem to care much and gave me attitude.  She finally offered a discount for my next stay (remember, I was the one to call her!) but I refused the offer and told her I would never return.  Next up, the latch on the door was missing, but there's a sign on the door that encourages to latch your door at night...that should be fixed.  Also, my online confirmation AND the pizza menu by the phone in the room says check-out is at noon...well the clerk called us on check-out day and kept saying "No, no, check out is at 11."  I talked to him up front while we checked out and he pointed to a small sign on the wall where it says check out is at 11.  I showed him my confirmation email AND the sign in the room which all say NOON but all he had to say was, "Oh..."  and didn't apologize for being rude. Also during check-out, while we were gathering our things, the housekeeping lady came by and I explained the issue, she rolled her eyes and said, well checkout is at 11.  Everyone I was in contact with at this location seemed really unprofessional and rude.  No customer service or management skills what so ever.  The price is low but you don't get much at ALL.  The WiFi is even bad, I'd pay more to go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>A few issues here. After check-in, I went into the room, which smelled like smoke considering it was non-smoking, and checked for bed bugs.  No bed bugs but as I was pulling back the sheets, I noticed the padding under the sheets was stained pretty badly.  I also found a USED CONDOM between the headboard of the bed and the wall.  The front desk clerk came by to clean it and apologized - but that was it - I was never offered a new room, NOR during my entire stay, and several days after, did a manager call me to address the issue.  I finally called the manager, Rima, and she was very unprofessional.  At first I thought that maybe she was unaware of the situation, but she made it clear that she knew about it and WAS THERE ONSITE that night! She said, "well I sent the the front desk clerk came to clean it..." and then said, "well what do you want me to do?"  I explained that yes, it was cleaned, but a manager should have further handled the situation DURING my stay.  First of all, she should have accompanied the clerk and apologized personally, as a manager should.    I was the one to initiate the call DAYS later and let her know how disappointed I was, she didn't seem to care much and gave me attitude.  She finally offered a discount for my next stay (remember,...A few issues here. After check-in, I went into the room, which smelled like smoke considering it was non-smoking, and checked for bed bugs.  No bed bugs but as I was pulling back the sheets, I noticed the padding under the sheets was stained pretty badly.  I also found a USED CONDOM between the headboard of the bed and the wall.  The front desk clerk came by to clean it and apologized - but that was it - I was never offered a new room, NOR during my entire stay, and several days after, did a manager call me to address the issue.  I finally called the manager, Rima, and she was very unprofessional.  At first I thought that maybe she was unaware of the situation, but she made it clear that she knew about it and WAS THERE ONSITE that night! She said, "well I sent the the front desk clerk came to clean it..." and then said, "well what do you want me to do?"  I explained that yes, it was cleaned, but a manager should have further handled the situation DURING my stay.  First of all, she should have accompanied the clerk and apologized personally, as a manager should.    I was the one to initiate the call DAYS later and let her know how disappointed I was, she didn't seem to care much and gave me attitude.  She finally offered a discount for my next stay (remember, I was the one to call her!) but I refused the offer and told her I would never return.  Next up, the latch on the door was missing, but there's a sign on the door that encourages to latch your door at night...that should be fixed.  Also, my online confirmation AND the pizza menu by the phone in the room says check-out is at noon...well the clerk called us on check-out day and kept saying "No, no, check out is at 11."  I talked to him up front while we checked out and he pointed to a small sign on the wall where it says check out is at 11.  I showed him my confirmation email AND the sign in the room which all say NOON but all he had to say was, "Oh..."  and didn't apologize for being rude. Also during check-out, while we were gathering our things, the housekeeping lady came by and I explained the issue, she rolled her eyes and said, well checkout is at 11.  Everyone I was in contact with at this location seemed really unprofessional and rude.  No customer service or management skills what so ever.  The price is low but you don't get much at ALL.  The WiFi is even bad, I'd pay more to go somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r378251546-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>378251546</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>The hotel was overall clean and updated. I did notice that the tub had not been cleaned as I would have liked and there were unknown hairs in the tub. But overall good for the price and convenient location.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r370294281-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>370294281</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whilst this motel is little out of town i would still recommend this motel due to the cleanliness of the rooms and  the friendly staff. The rooms houses a large king sized bed, a lounge, a work station, TV air con and a beautiful bathroom with a bath.  There is a bus service available a short walk from the motel, failing that the hotel staff are more than happy to arrange transport to your destination. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r356656817-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>356656817</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>sluming guests</t>
+  </si>
+  <si>
+    <t>i had stayed here in the past about same time every year , but come to find out Motel 6 bought out the former Best Western, well i didn't have time to look elsewhere so we ended up staying here, everything seemed to be the same except no complementary breakfast, no big deal prices were very cheap , but as soon as we checked in there was guests just hanging out in the balcony or suspicious  looking people in and out , which made us uncomfortable and just staring what bags we were bringing in, we will definitely not stay here no more, maybe its the cheap prices that bring people in that can't really afford a better place to stay , id rather pay a little more  and feel safe and comfortable than be around a bunch of hoodlums and low life, also the grounds was very dirtyi will look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Arlington, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>i had stayed here in the past about same time every year , but come to find out Motel 6 bought out the former Best Western, well i didn't have time to look elsewhere so we ended up staying here, everything seemed to be the same except no complementary breakfast, no big deal prices were very cheap , but as soon as we checked in there was guests just hanging out in the balcony or suspicious  looking people in and out , which made us uncomfortable and just staring what bags we were bringing in, we will definitely not stay here no more, maybe its the cheap prices that bring people in that can't really afford a better place to stay , id rather pay a little more  and feel safe and comfortable than be around a bunch of hoodlums and low life, also the grounds was very dirtyi will look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r344079189-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>344079189</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>Fantastic Motel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean. Updated. Quiet. Comfy beds. Very friendly service. Convenient location. Couldn't ask for more at this price point. Stayed for a speed skating meet at the Skatium. About a 5 min drive. Bring your own shampoo and conditioner. Ask for a 4th towel at the front desk if you need one. </t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r339763439-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>339763439</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Gave the benefit of the doubt. Highly dissatisfied!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the reviews before staying here. The reviews were right. Don't stay here if you can avoid it. The only good thing was the bed was very comfortable. There was NO mini fridge and NO breakfast. They did serve coffee BUT it was cold and awful!!!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r318299984-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>318299984</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Be careful</t>
+  </si>
+  <si>
+    <t>Upon arriving to the motel which is right off the interstate,  we learned there were no non-smoking rooms left. We are both non-smokers so this was less than ideal. They suggested we come back in the morning to see if anyone would check out of a non-smoking room and we could have it. In terms of it being close to the Entertainment District the location was ideal but there isn't anything "fun" to do around the area other than the stadium and ball park. A rental car is highly recommended as there is no transit around. When we went back to ask about a non smoking room they said since we booked through hotels.com we couldn't change. We were stuck despite what they had told us the day before. We also happened to walk by a man who was sleeping in his car in the parking lot.  The parking lot is poorly lit and is scary especially for young children and ladies. There was a fridge in our room that was covered in stains and old dust and stains all over the walls. I noticed a spider web in the bathroom on the floor in the corner and it was there for our entire stay so it was clear the rooms are not thoroughly cleaned. Our window did not have a screen either so it was difficult to air the room out (we ended up buying Febreeze to help with...Upon arriving to the motel which is right off the interstate,  we learned there were no non-smoking rooms left. We are both non-smokers so this was less than ideal. They suggested we come back in the morning to see if anyone would check out of a non-smoking room and we could have it. In terms of it being close to the Entertainment District the location was ideal but there isn't anything "fun" to do around the area other than the stadium and ball park. A rental car is highly recommended as there is no transit around. When we went back to ask about a non smoking room they said since we booked through hotels.com we couldn't change. We were stuck despite what they had told us the day before. We also happened to walk by a man who was sleeping in his car in the parking lot.  The parking lot is poorly lit and is scary especially for young children and ladies. There was a fridge in our room that was covered in stains and old dust and stains all over the walls. I noticed a spider web in the bathroom on the floor in the corner and it was there for our entire stay so it was clear the rooms are not thoroughly cleaned. Our window did not have a screen either so it was difficult to air the room out (we ended up buying Febreeze to help with the smell) for fear of having someone come in. We were very happy to leave this morning. Not recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Upon arriving to the motel which is right off the interstate,  we learned there were no non-smoking rooms left. We are both non-smokers so this was less than ideal. They suggested we come back in the morning to see if anyone would check out of a non-smoking room and we could have it. In terms of it being close to the Entertainment District the location was ideal but there isn't anything "fun" to do around the area other than the stadium and ball park. A rental car is highly recommended as there is no transit around. When we went back to ask about a non smoking room they said since we booked through hotels.com we couldn't change. We were stuck despite what they had told us the day before. We also happened to walk by a man who was sleeping in his car in the parking lot.  The parking lot is poorly lit and is scary especially for young children and ladies. There was a fridge in our room that was covered in stains and old dust and stains all over the walls. I noticed a spider web in the bathroom on the floor in the corner and it was there for our entire stay so it was clear the rooms are not thoroughly cleaned. Our window did not have a screen either so it was difficult to air the room out (we ended up buying Febreeze to help with...Upon arriving to the motel which is right off the interstate,  we learned there were no non-smoking rooms left. We are both non-smokers so this was less than ideal. They suggested we come back in the morning to see if anyone would check out of a non-smoking room and we could have it. In terms of it being close to the Entertainment District the location was ideal but there isn't anything "fun" to do around the area other than the stadium and ball park. A rental car is highly recommended as there is no transit around. When we went back to ask about a non smoking room they said since we booked through hotels.com we couldn't change. We were stuck despite what they had told us the day before. We also happened to walk by a man who was sleeping in his car in the parking lot.  The parking lot is poorly lit and is scary especially for young children and ladies. There was a fridge in our room that was covered in stains and old dust and stains all over the walls. I noticed a spider web in the bathroom on the floor in the corner and it was there for our entire stay so it was clear the rooms are not thoroughly cleaned. Our window did not have a screen either so it was difficult to air the room out (we ended up buying Febreeze to help with the smell) for fear of having someone come in. We were very happy to leave this morning. Not recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r267160578-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>267160578</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Paid for Best Western, Got a Motel 6!</t>
+  </si>
+  <si>
+    <t>I booked this hotel expecting a newly renovated place that served daily breakfast, I got a Motel 6 with, no breakfast, no working computer. Our room key never worked and every night had to go to the office and get it redone, The beds were comfy and the rooms were ok, but you can tell the place was falling fast from the Best Western it once was!! Because now it's a Motel 6 with no signs!!!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r266414378-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>266414378</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Not what it appears</t>
+  </si>
+  <si>
+    <t>Flew in from Arizona and Nevada to spend the week for the ACM awards. Booked off of Hotels.com back in January. The Reasons for booking was newly renovated, free hot breakfast and great location to festivities.  Reviews were great and price was right. Upon checking, we were told this was no longer a Best Western as of a day ago, no more free breakfast, no free coffee for the coffee maker in the room, and toiletries were given. Apparently Motel 6 doesn't offer those amenities. The beds were comfy and the room was newly renovated, but there were lamps that had bulbs falling out, lamp shade had some type of gross sticky glob on it, iron was broken and bathroom lighting was horrible. You could barely see to shower. Staff was not friendly whatsoever or helpful in trying to resolve any situations we had. All they kept saying is we are not a Best Western. Smoke alarms went off twice so far and we still have two days left to stay.   Motel 6 is horrible!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Flew in from Arizona and Nevada to spend the week for the ACM awards. Booked off of Hotels.com back in January. The Reasons for booking was newly renovated, free hot breakfast and great location to festivities.  Reviews were great and price was right. Upon checking, we were told this was no longer a Best Western as of a day ago, no more free breakfast, no free coffee for the coffee maker in the room, and toiletries were given. Apparently Motel 6 doesn't offer those amenities. The beds were comfy and the room was newly renovated, but there were lamps that had bulbs falling out, lamp shade had some type of gross sticky glob on it, iron was broken and bathroom lighting was horrible. You could barely see to shower. Staff was not friendly whatsoever or helpful in trying to resolve any situations we had. All they kept saying is we are not a Best Western. Smoke alarms went off twice so far and we still have two days left to stay.   Motel 6 is horrible!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r257394628-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>257394628</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>best western parks mall</t>
+  </si>
+  <si>
+    <t>good property convenient to mall ..bed good quality..breakfast just fair..easy in and out..courteous front desk staff..internet easy to set up..could have used extra blanket or something,but none provided in roomMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Amrit P, Manager at Motel 6 Arlington, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>good property convenient to mall ..bed good quality..breakfast just fair..easy in and out..courteous front desk staff..internet easy to set up..could have used extra blanket or something,but none provided in roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r255157614-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>255157614</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Good Job BW!</t>
+  </si>
+  <si>
+    <t>Staff was super sweet and called us by our names the entire time. The bed was probably the most comfortable I had ever slept in in a hotel! Overall wonderful hotel! Newly Remodeled and right across the street from the Parks Mall! Cowboys and Rangers stadiums are right down the street. Great hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Amrit P, General Manager at Motel 6 Arlington, responded to this reviewResponded February 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2015</t>
+  </si>
+  <si>
+    <t>Staff was super sweet and called us by our names the entire time. The bed was probably the most comfortable I had ever slept in in a hotel! Overall wonderful hotel! Newly Remodeled and right across the street from the Parks Mall! Cowboys and Rangers stadiums are right down the street. Great hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r254068126-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>254068126</t>
+  </si>
+  <si>
+    <t>02/13/2015</t>
+  </si>
+  <si>
+    <t>Audits in Arlington</t>
+  </si>
+  <si>
+    <t>Great staff. gracious and helpful. No issue that wasn't quickly and professionally resolved. Clean and well appointed lobby and rooms. Good breakfast and great location to shopping, freeways and great restaurants. Location is nicely hidden off the main drag. Caring staff who take their business seriously as great innkeepers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amrit P, General Manager at Motel 6 Arlington, responded to this reviewResponded February 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2015</t>
+  </si>
+  <si>
+    <t>Great staff. gracious and helpful. No issue that wasn't quickly and professionally resolved. Clean and well appointed lobby and rooms. Good breakfast and great location to shopping, freeways and great restaurants. Location is nicely hidden off the main drag. Caring staff who take their business seriously as great innkeepers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r251204449-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>251204449</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Great bargain</t>
+  </si>
+  <si>
+    <t>We stayed here for the National Championship game. It was somewhat of a last minute decision and I was worried about the availability of a room. I found this hotel and I'm very glad I did! The combination of distance to the game, updated rooms, availability of local entertainment, and fantastic rate made for a great value! Definitely would recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Amrit P, General Manager at Motel 6 Arlington, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for the National Championship game. It was somewhat of a last minute decision and I was worried about the availability of a room. I found this hotel and I'm very glad I did! The combination of distance to the game, updated rooms, availability of local entertainment, and fantastic rate made for a great value! Definitely would recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r250244495-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>250244495</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel, great value</t>
+  </si>
+  <si>
+    <t>The room was spotless, the staff was friendly and helpful, and the room amenities, including wifi, were what they should be. One thing in this hotel's favor is that it has recently been refurbished, but even so, it is a well-maintained place. The linens were clean and tidy. We took a handicapped-accessible room partly because we had a baby with us. The bathroom thus was very large with floor space for the portable crib. There was hot food for breakfast, nothing to brag about, but expected fare for this class of hotel. There's no way to make precooked sausage patties kept in a warming pan look appetizing. A minor quibble, which I mentioned to the desk clerk, was the lack of an infant seat in the dining area. She said there had been one but it had deteriorated and not been replaced. She agreed one was needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amrit P, General Manager at Motel 6 Arlington, responded to this reviewResponded January 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2015</t>
+  </si>
+  <si>
+    <t>The room was spotless, the staff was friendly and helpful, and the room amenities, including wifi, were what they should be. One thing in this hotel's favor is that it has recently been refurbished, but even so, it is a well-maintained place. The linens were clean and tidy. We took a handicapped-accessible room partly because we had a baby with us. The bathroom thus was very large with floor space for the portable crib. There was hot food for breakfast, nothing to brag about, but expected fare for this class of hotel. There's no way to make precooked sausage patties kept in a warming pan look appetizing. A minor quibble, which I mentioned to the desk clerk, was the lack of an infant seat in the dining area. She said there had been one but it had deteriorated and not been replaced. She agreed one was needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r250122302-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>250122302</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>great value</t>
+  </si>
+  <si>
+    <t>We had two rooms for an event in AT&amp;T stadium. They were a great value for our money - convenient and clean. The breakfast is nothing special but good enough. The rooms were a nice size and had a small refrigerator that was handy. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had two rooms for an event in AT&amp;T stadium. They were a great value for our money - convenient and clean. The breakfast is nothing special but good enough. The rooms were a nice size and had a small refrigerator that was handy. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r249393588-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>249393588</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Would definitely come back</t>
+  </si>
+  <si>
+    <t>I would definitely come back again!  The rooms were spacious and clean, the bed was comfortable, the staff was very helpful, and they had great amenities close by.  The breakfast options were just enough to get you going for day, and the lobby/eating was very clean and roomy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amrit P, Manager at Motel 6 Arlington, responded to this reviewResponded January 21, 2015</t>
+  </si>
+  <si>
+    <t>I would definitely come back again!  The rooms were spacious and clean, the bed was comfortable, the staff was very helpful, and they had great amenities close by.  The breakfast options were just enough to get you going for day, and the lobby/eating was very clean and roomy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r247697007-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>247697007</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>We usually stay at hotels in the Hyatt or Marriot chains, but we used frequent flyer miles to stay at the Best Western while visiting Six Flags.  This Best Western is a surprisingly great value.  Ellen, at the front desk, went far out of her way to accommodate our needs.  The housekeeping staff was attentive, and the rooms were very clean.  It is clear that the décor of the rooms has been updated.  Breakfast was fine.  Noise was not an issue.  We will definitely stay here again, and will recommend it to friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>We usually stay at hotels in the Hyatt or Marriot chains, but we used frequent flyer miles to stay at the Best Western while visiting Six Flags.  This Best Western is a surprisingly great value.  Ellen, at the front desk, went far out of her way to accommodate our needs.  The housekeeping staff was attentive, and the rooms were very clean.  It is clear that the décor of the rooms has been updated.  Breakfast was fine.  Noise was not an issue.  We will definitely stay here again, and will recommend it to friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r246564952-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>246564952</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Not quite the 5 star experience in use to buy under the circumstance it was sufficient.</t>
+  </si>
+  <si>
+    <t>The staff wasn't the usually, jovial group of representatives that I'm used to from my stay at various BW's.  It may be because if the football game and the many out of towns visitors that were there and in a spirited mood about their Cowboys big victory.  But they did help me with my luggage, before check in time, so I was able to go to the game!  The day crew was exceptionally pleasant and helped their score, in my minds eye!MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff wasn't the usually, jovial group of representatives that I'm used to from my stay at various BW's.  It may be because if the football game and the many out of towns visitors that were there and in a spirited mood about their Cowboys big victory.  But they did help me with my luggage, before check in time, so I was able to go to the game!  The day crew was exceptionally pleasant and helped their score, in my minds eye!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r241798659-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>241798659</t>
+  </si>
+  <si>
+    <t>11/27/2014</t>
+  </si>
+  <si>
+    <t>Cooper Inn Great</t>
+  </si>
+  <si>
+    <t>In the last 2 months I have stayed at the Cooper Inn in Arlington about 30 days . The staff from the manager to the cleaning people extremely helpful and made my stay great . Next time I am in Arlington you can find me at the Cooper Inn .MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Amrit P, Manager at Motel 6 Arlington, responded to this reviewResponded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2014</t>
+  </si>
+  <si>
+    <t>In the last 2 months I have stayed at the Cooper Inn in Arlington about 30 days . The staff from the manager to the cleaning people extremely helpful and made my stay great . Next time I am in Arlington you can find me at the Cooper Inn .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r235609416-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>235609416</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Helpful staff</t>
+  </si>
+  <si>
+    <t>We spent 10 nights at this hotel in October 2014 while on vacation. The staff (especially Alin) was very helpful allowing us to change rooms 2 times due to an inoperable room safe and road noise. The rooms were clean and comfortable. The staff were VERY intent on keeping the place clean and were shampooing / steam cleaning carpets on our 2nd day.The provided breakfast was nice with waffles, eggs and sausage chubs along with yogurt, fresh fruit and assorted cereals. We had no complaints here but only made the breakfast cutoff once.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Amrit P, Manager at Motel 6 Arlington, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>We spent 10 nights at this hotel in October 2014 while on vacation. The staff (especially Alin) was very helpful allowing us to change rooms 2 times due to an inoperable room safe and road noise. The rooms were clean and comfortable. The staff were VERY intent on keeping the place clean and were shampooing / steam cleaning carpets on our 2nd day.The provided breakfast was nice with waffles, eggs and sausage chubs along with yogurt, fresh fruit and assorted cereals. We had no complaints here but only made the breakfast cutoff once.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r233220346-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>233220346</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>For an older hotel it was recently updated, very clean and very comfortable beds.  The A/C worked great.  The shower was amazing with great temperature / water pressure.  The large garden tub was a hit.  The good location made it easy to access the stadium, shopping strip and eateries.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amrit P, Manager at Motel 6 Arlington, responded to this reviewResponded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2014</t>
+  </si>
+  <si>
+    <t>For an older hotel it was recently updated, very clean and very comfortable beds.  The A/C worked great.  The shower was amazing with great temperature / water pressure.  The large garden tub was a hit.  The good location made it easy to access the stadium, shopping strip and eateries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r219451382-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>219451382</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Honeymoon stay</t>
+  </si>
+  <si>
+    <t>My new hubby and I traveled to Arlington for our honeymoon as well as to watch a couple of baseball games. I was a little hesitant to stay because of other reviews about renovations at the hotel, but chose to stay anyway. It turned out to be a great choice. The room was very nice, clean, and comfortable. The staff at the front desk was friendly and very helpful.  If we ever travel to Arlington again we will stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Amrit P, General Manager at Motel 6 Arlington, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>My new hubby and I traveled to Arlington for our honeymoon as well as to watch a couple of baseball games. I was a little hesitant to stay because of other reviews about renovations at the hotel, but chose to stay anyway. It turned out to be a great choice. The room was very nice, clean, and comfortable. The staff at the front desk was friendly and very helpful.  If we ever travel to Arlington again we will stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r219380823-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>219380823</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Stay was adequate</t>
+  </si>
+  <si>
+    <t>Outside of the pool not bring available and waiting almost 24 hours for an iron, the stay was pleasant. They had painters painting the ground after we checked in, so we had to be careful leaving out room and waking to our car.  When leaving it took about 5 minutes for someone to open the door so we could hand in our key so we could make it to the airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r218920443-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>218920443</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Not my favorite Best Western stay</t>
+  </si>
+  <si>
+    <t>My first stay at this hotel was while it was under construction. I booked through the Best Western website, and it didn’t mention that the place was in complete renovation .. when I arrived, I left and went elsewhere. This was the first time back after construction. The room was nice enough – paint etc.. – but the phone didn’t work (wouldn’t receive calls), the TV didn’t work properly. They got the first fixed, they latter never got fixed (“You should have mentioned this, Mr Denney ..”, Well actually I did and the guy I talked with said they’d fix it). Would have also been nice to have wash rags in the bath? But what really upset me more than anything: This facility was NOT available for booking on the Best Western website (due to the construction I was told). So I booked the room through AARP. When I asked about my “rewards points” I was told “You didn’t book the room through the BW website”. Explaining that doing so was not possible didn’t seem to matter, even when I called rewards customer service. So overall, wasn’t real pleased with the facility, or with customer service. To be fair, maybe the facility is having post construction issues. Added note, for Arlington TX most of the hotels are located in one area by the Parks Mall. Of the three I've stayed in, this location seemed to be the noisiest (street noise)...My first stay at this hotel was while it was under construction. I booked through the Best Western website, and it didn’t mention that the place was in complete renovation .. when I arrived, I left and went elsewhere. This was the first time back after construction. The room was nice enough – paint etc.. – but the phone didn’t work (wouldn’t receive calls), the TV didn’t work properly. They got the first fixed, they latter never got fixed (“You should have mentioned this, Mr Denney ..”, Well actually I did and the guy I talked with said they’d fix it). Would have also been nice to have wash rags in the bath? But what really upset me more than anything: This facility was NOT available for booking on the Best Western website (due to the construction I was told). So I booked the room through AARP. When I asked about my “rewards points” I was told “You didn’t book the room through the BW website”. Explaining that doing so was not possible didn’t seem to matter, even when I called rewards customer service. So overall, wasn’t real pleased with the facility, or with customer service. To be fair, maybe the facility is having post construction issues. Added note, for Arlington TX most of the hotels are located in one area by the Parks Mall. Of the three I've stayed in, this location seemed to be the noisiest (street noise) of the three, I think because the building layout along the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>My first stay at this hotel was while it was under construction. I booked through the Best Western website, and it didn’t mention that the place was in complete renovation .. when I arrived, I left and went elsewhere. This was the first time back after construction. The room was nice enough – paint etc.. – but the phone didn’t work (wouldn’t receive calls), the TV didn’t work properly. They got the first fixed, they latter never got fixed (“You should have mentioned this, Mr Denney ..”, Well actually I did and the guy I talked with said they’d fix it). Would have also been nice to have wash rags in the bath? But what really upset me more than anything: This facility was NOT available for booking on the Best Western website (due to the construction I was told). So I booked the room through AARP. When I asked about my “rewards points” I was told “You didn’t book the room through the BW website”. Explaining that doing so was not possible didn’t seem to matter, even when I called rewards customer service. So overall, wasn’t real pleased with the facility, or with customer service. To be fair, maybe the facility is having post construction issues. Added note, for Arlington TX most of the hotels are located in one area by the Parks Mall. Of the three I've stayed in, this location seemed to be the noisiest (street noise)...My first stay at this hotel was while it was under construction. I booked through the Best Western website, and it didn’t mention that the place was in complete renovation .. when I arrived, I left and went elsewhere. This was the first time back after construction. The room was nice enough – paint etc.. – but the phone didn’t work (wouldn’t receive calls), the TV didn’t work properly. They got the first fixed, they latter never got fixed (“You should have mentioned this, Mr Denney ..”, Well actually I did and the guy I talked with said they’d fix it). Would have also been nice to have wash rags in the bath? But what really upset me more than anything: This facility was NOT available for booking on the Best Western website (due to the construction I was told). So I booked the room through AARP. When I asked about my “rewards points” I was told “You didn’t book the room through the BW website”. Explaining that doing so was not possible didn’t seem to matter, even when I called rewards customer service. So overall, wasn’t real pleased with the facility, or with customer service. To be fair, maybe the facility is having post construction issues. Added note, for Arlington TX most of the hotels are located in one area by the Parks Mall. Of the three I've stayed in, this location seemed to be the noisiest (street noise) of the three, I think because the building layout along the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r214427566-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>214427566</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Great hotel - clean and friendly staff!</t>
+  </si>
+  <si>
+    <t>Our recent experience was just perfect!  The hotel has been recently renovated and was very nice and clean.  The breakfast was just enough to jump start our day and the staff were there to answer every request.  The manager was very friendly and pleasant!  We highly recommend this hotel!  Thanks for a fun "stay-cation".!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r212275745-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>212275745</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Do not stay here!</t>
+  </si>
+  <si>
+    <t>Poor service as my request for a ground floor room was not met.   The A/C controls were not working at all. The bathroom door had a mirror ripped off and a hole in the door. the room was not very clean, The vent fan in the bathroom was louder than the television. The room remodel was unfinished. The breakfast was next to nothing.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Amrit P, Manager at Motel 6 Arlington, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Poor service as my request for a ground floor room was not met.   The A/C controls were not working at all. The bathroom door had a mirror ripped off and a hole in the door. the room was not very clean, The vent fan in the bathroom was louder than the television. The room remodel was unfinished. The breakfast was next to nothing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r212276074-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>212276074</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel several times. The location is perfect for us, and the price is really great!  We will continue to stay at this hotel when we come to Dallas/Ft. Worth area, as we come at least once a year, and have found no better hotel than this.  They are in the processing of remodeling, and on this most recent stay, you could tell, but the remodel they have completed so far is really nice.  Once it is all completed, I think it is going to be great!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r209677252-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>209677252</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Road Trip for Colorado</t>
+  </si>
+  <si>
+    <t>The location was excellent with good parking. Breakfast was good. Fitness center was okay. You can not beat the location. Facilities are a little worn but the location made up for it. The pool was questionable and the whirl-pool was definitely a not, but the staff was very helpful .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r202733572-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>202733572</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>This would have been the 3rd time staying at this hotel. We traveled from Baton Rouge, LA to Arlington to attend karate seminars at a local karate school very near this hotel. The first time we stayed here we were placed in an upstairs corner room. The room appeared somewhat clean, but the bathroom door was broken and the pull out sofa was also broken. The second time we stayed here we stayed in a similar room but on the bottom floor. In the room next to us, people had the door and window smoking and they were sitting around with several bottles of liqour and smoking heavily in the hotel room. From my knowledge this is supposed to be a non smoking hotel and we could smell the cigarettes from inside our hotel room. We called the front desk, but to my knowledge nothing was done because this behavior went on all night. The last and final time we "attempted" to stay at this hotel was 4/12/14. We drove in late from Louisiana arriving in Texas around 1:00am. Needless to say we were exhausted. When we arrived, the hotel was under extreme construction. No where on the best western site did it say anything about renovations taking place at the hotel. It took almost 25 minutes for the clerk to even acknowledge my boyfriend standing at the counter because he was on the phone. When he finally did, the...This would have been the 3rd time staying at this hotel. We traveled from Baton Rouge, LA to Arlington to attend karate seminars at a local karate school very near this hotel. The first time we stayed here we were placed in an upstairs corner room. The room appeared somewhat clean, but the bathroom door was broken and the pull out sofa was also broken. The second time we stayed here we stayed in a similar room but on the bottom floor. In the room next to us, people had the door and window smoking and they were sitting around with several bottles of liqour and smoking heavily in the hotel room. From my knowledge this is supposed to be a non smoking hotel and we could smell the cigarettes from inside our hotel room. We called the front desk, but to my knowledge nothing was done because this behavior went on all night. The last and final time we "attempted" to stay at this hotel was 4/12/14. We drove in late from Louisiana arriving in Texas around 1:00am. Needless to say we were exhausted. When we arrived, the hotel was under extreme construction. No where on the best western site did it say anything about renovations taking place at the hotel. It took almost 25 minutes for the clerk to even acknowledge my boyfriend standing at the counter because he was on the phone. When he finally did, the room key was given to us and we walked up to our room. The smell of smoke instantly hit us when we openend the door. My boyfriend has asthma and is allergic to cigarette smoke. We called down to the front desk and we were told to come back down (up and down stairs) and that we would be moved to another room. So we came down and he went back and forth with someone on the phone about what room to put us in. After it a room was decided on he gave us the key. Back around the hotel and up the stairs again we entered the 2nd room. THE ROOM WAS A MESS &amp; LOOKED LIKE SOMEONE WAS STAYING IN IT! There were towels everywhere and the beds were unmade. Understandably upset we walked back down to the receptionist (In the middle of the night mind you) and told the receptionist that the room was dirty, beds unmade, and towels everywhere... His response, "was it bad?" Are you kidding me!?! It's irrelivant how bad it was. Someone was or had recently stayed in that room and it had not been cleaned. At this point we were furious and demanded a refund. We were told that a refund could not be done in the middle of the night and would have to be done the next day. We asked the receptionist to give us something in writing with his name and the date on it. The icing on the cake... He couldn't even spell my boyfriend's last name correctly.... It's Kennedy! NEVER AGAIN BEST WESTERN! THIS HOTEL NEEDS SOME SERIOUS HELP!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Amrit P, General Manager at Motel 6 Arlington, responded to this reviewResponded April 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2014</t>
+  </si>
+  <si>
+    <t>This would have been the 3rd time staying at this hotel. We traveled from Baton Rouge, LA to Arlington to attend karate seminars at a local karate school very near this hotel. The first time we stayed here we were placed in an upstairs corner room. The room appeared somewhat clean, but the bathroom door was broken and the pull out sofa was also broken. The second time we stayed here we stayed in a similar room but on the bottom floor. In the room next to us, people had the door and window smoking and they were sitting around with several bottles of liqour and smoking heavily in the hotel room. From my knowledge this is supposed to be a non smoking hotel and we could smell the cigarettes from inside our hotel room. We called the front desk, but to my knowledge nothing was done because this behavior went on all night. The last and final time we "attempted" to stay at this hotel was 4/12/14. We drove in late from Louisiana arriving in Texas around 1:00am. Needless to say we were exhausted. When we arrived, the hotel was under extreme construction. No where on the best western site did it say anything about renovations taking place at the hotel. It took almost 25 minutes for the clerk to even acknowledge my boyfriend standing at the counter because he was on the phone. When he finally did, the...This would have been the 3rd time staying at this hotel. We traveled from Baton Rouge, LA to Arlington to attend karate seminars at a local karate school very near this hotel. The first time we stayed here we were placed in an upstairs corner room. The room appeared somewhat clean, but the bathroom door was broken and the pull out sofa was also broken. The second time we stayed here we stayed in a similar room but on the bottom floor. In the room next to us, people had the door and window smoking and they were sitting around with several bottles of liqour and smoking heavily in the hotel room. From my knowledge this is supposed to be a non smoking hotel and we could smell the cigarettes from inside our hotel room. We called the front desk, but to my knowledge nothing was done because this behavior went on all night. The last and final time we "attempted" to stay at this hotel was 4/12/14. We drove in late from Louisiana arriving in Texas around 1:00am. Needless to say we were exhausted. When we arrived, the hotel was under extreme construction. No where on the best western site did it say anything about renovations taking place at the hotel. It took almost 25 minutes for the clerk to even acknowledge my boyfriend standing at the counter because he was on the phone. When he finally did, the room key was given to us and we walked up to our room. The smell of smoke instantly hit us when we openend the door. My boyfriend has asthma and is allergic to cigarette smoke. We called down to the front desk and we were told to come back down (up and down stairs) and that we would be moved to another room. So we came down and he went back and forth with someone on the phone about what room to put us in. After it a room was decided on he gave us the key. Back around the hotel and up the stairs again we entered the 2nd room. THE ROOM WAS A MESS &amp; LOOKED LIKE SOMEONE WAS STAYING IN IT! There were towels everywhere and the beds were unmade. Understandably upset we walked back down to the receptionist (In the middle of the night mind you) and told the receptionist that the room was dirty, beds unmade, and towels everywhere... His response, "was it bad?" Are you kidding me!?! It's irrelivant how bad it was. Someone was or had recently stayed in that room and it had not been cleaned. At this point we were furious and demanded a refund. We were told that a refund could not be done in the middle of the night and would have to be done the next day. We asked the receptionist to give us something in writing with his name and the date on it. The icing on the cake... He couldn't even spell my boyfriend's last name correctly.... It's Kennedy! NEVER AGAIN BEST WESTERN! THIS HOTEL NEEDS SOME SERIOUS HELP!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r202654690-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>202654690</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Renovation mishaps</t>
+  </si>
+  <si>
+    <t>Hotel is undergoing renovations. Our room seems liked it was half renovated. We had a broken toilet seat and door stopper. We had no table or desk to place our items on. We had to use the ironing board as a table. The breakfast left something to be desired. I had to unplug the microwave in order to plug in the toaster. I will miss this one next time I am in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r199344003-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>199344003</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>good location</t>
+  </si>
+  <si>
+    <t>This hotel is being remodeled. So can not give a proper review. The location was good. Close to the freeway but not noisy. Lots of shopping near by. Plenty of parking. If in the area again, we might get them another try.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r198004729-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>198004729</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Good Experience</t>
+  </si>
+  <si>
+    <t>Thought I would try a different hotel for my trip to the metroplex.  Check in staff friendly, polite, and quick.  Room was very clean, carpet was good, but you could see the wear and tear on some of the furniture.  Not a bad thing when everything else is clean.  The bed was comfy but the pillows lacled a bit to be desired.   They were a bit lumpy and mushy.  Some people probably like that but I prefer firm.  Shower head was taller than me.  :)  Water was hot.  A/C worked great.  I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r198025866-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>198025866</t>
+  </si>
+  <si>
+    <t>WOW.</t>
+  </si>
+  <si>
+    <t>The Beds were so soft and comfortable.  The lobby was being remodeled at arrival but come breakfast time you would never know it.  The breakfast offered very fresh Jimmy Dean Sausage Egg Cheese Biscuits, what a plus. Not Upscale or anything, just affordable and clean. The shower was great, very clean towels and the soap and shampoo provided was better than average. Three pillows on my queen beds rather than two, this was a nice feature.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r196382921-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>196382921</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Best Western - Clean- Convenient-Good price</t>
+  </si>
+  <si>
+    <t>This Best Western is conveniently located, right across from the Parks Mall, decent breakfast in the mornings also. Only problem we had was when we arrived, I was told we had a smoking room. I ONLY reserve non-smoking rooms!  The desk clerk was nice enough to find me a non-smoking, it was a handicap room, but said "I'll take it". It was clean and the beds were comfortableMoreShow less</t>
+  </si>
+  <si>
+    <t>This Best Western is conveniently located, right across from the Parks Mall, decent breakfast in the mornings also. Only problem we had was when we arrived, I was told we had a smoking room. I ONLY reserve non-smoking rooms!  The desk clerk was nice enough to find me a non-smoking, it was a handicap room, but said "I'll take it". It was clean and the beds were comfortableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r190791260-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>190791260</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>just OK</t>
+  </si>
+  <si>
+    <t>reserved and arrived at the hotel see theat to many police and police vehicles on site. hotel staff won explan hornorly what going on. we almost to cancel the reservation. just took a litke risk on making stay decision. Everything were OK, but if the hotel staff explain honorly then we may be better comfortable when chk in.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r190106281-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>190106281</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Good Place, Good Breakfast</t>
+  </si>
+  <si>
+    <t>We had a good stay at the hotel.  The Breakfast was good, and I finally I did not have any issues with the Internet. The beds were great.  The only small issue I had was, when I booked the room to sleep for 4 people, and I only had 3 sets of towels. Needed to request more towels.  Overall, we had a Good Night sleep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r184842561-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>184842561</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>Feces stain on sheets</t>
+  </si>
+  <si>
+    <t>Worst hotel experience in 33 years of traveling.  A big dried dark yellow feces stain was on the sheet of the king size bed.  It was shockingly gross.  Also my door wouldn't lock.  You could just push it open from the outside.  The breakfast is poor also.  This used to be a good hotel.  Not any more.  I won't be back any time soon.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r183333412-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>183333412</t>
+  </si>
+  <si>
+    <t>11/02/2013</t>
+  </si>
+  <si>
+    <t>Arlington Stay</t>
+  </si>
+  <si>
+    <t>We found our motel to be a great value and the locations for the conference we attended was the best for restaurants, shopping, and sightseeing!  The staff was very friendly and helpful.  The location, although it was along busy S. Cooper St., was very quiet.  Our room was very nice for our down hours, when not at the conference.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r181215316-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>181215316</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>KIOGE OIL SHOW</t>
+  </si>
+  <si>
+    <t>Great hotel close to shopping and restaurants. Only one thing needs improvement. The beds are quite hard. Over all this hotel is worth the money. All workers speak good English and will go out of there was to help you in any way. I will defiantly stay here in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r180138748-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>180138748</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Best Western Cooper Inn &amp; Suites</t>
+  </si>
+  <si>
+    <t>My wife and I stayed one night and it was ok for the price.  It's an older property and I was told it would soon be refurbished.  All rooms have outside entry and is built close to the street.  It is across from Arlington Mall so during the day there is a fair amount of road noise if you get a street side room.  The room was clean and worked for us for one night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r176828775-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>176828775</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Not the best Best Western</t>
+  </si>
+  <si>
+    <t>Location was good as expected. Free internet was OK. Free full breakfast was disappointing. Friday included cold boiled eggs, deformed with most shells cracked, probably from storage, sausage gravy with a thick dry crust on top, and frozen style biscuits which were drying out at room temperature. Saturday added cheese omelets which looked massed produced, and mystery meat sausage patties, and the same biscuits and gravy. We ate out all four mornings. I wouldn't stay here again.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r175516524-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>175516524</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Clean hotel close to JerryWorld</t>
+  </si>
+  <si>
+    <t>Hotel was clean with abundant fresh towels,good AC and easy access to JerryWorld...only negative was they picked up the complimentary breakfast 20 mins. too early. Very good rates and staff was very friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r168908124-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>168908124</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Cheap but gross</t>
+  </si>
+  <si>
+    <t>You get what you pay for, and the room rate was very reasonable.  We received the rate of around $70 a night with our AAA discount. 
+Positives:  There was hot water and the toilets flushed.
+Negatives:  Please note that there are not hallways, there are doors directly to the outside.  I was told we'd have rooms next to each other (2) but they weren't.  Rooms smelled odd.  Very dirty surroundings, as though they never clean the sidewalks or anything.  Saw several empty cold medicine packages and even a dirty diaper.  Beds were pretty hard, but they usually are in hotels.  The place just didn't feel clean.  I am aggravated that it even received a three star rating on this site, I don't know where these people stayed.  There was supposed to be a "full breakfast" as described on the website, and as the check-in person told us...we went down there to eat at a little before 8 on a Monday morning and there wasn't anything left except for some weird pastry things.  The last straw was last night, I saw a baby roach crawling across the bathroom counter.  Nasty.  Then I got to thinking about other bugs that live in beds and things and I just couldn't sleep!  We drove straight home today and all took showers and washed our clothes in hot water!  
+Also, we were in town for a Yankees/Rangers game.  This hotel is a good 20 minutes...You get what you pay for, and the room rate was very reasonable.  We received the rate of around $70 a night with our AAA discount. Positives:  There was hot water and the toilets flushed.Negatives:  Please note that there are not hallways, there are doors directly to the outside.  I was told we'd have rooms next to each other (2) but they weren't.  Rooms smelled odd.  Very dirty surroundings, as though they never clean the sidewalks or anything.  Saw several empty cold medicine packages and even a dirty diaper.  Beds were pretty hard, but they usually are in hotels.  The place just didn't feel clean.  I am aggravated that it even received a three star rating on this site, I don't know where these people stayed.  There was supposed to be a "full breakfast" as described on the website, and as the check-in person told us...we went down there to eat at a little before 8 on a Monday morning and there wasn't anything left except for some weird pastry things.  The last straw was last night, I saw a baby roach crawling across the bathroom counter.  Nasty.  Then I got to thinking about other bugs that live in beds and things and I just couldn't sleep!  We drove straight home today and all took showers and washed our clothes in hot water!  Also, we were in town for a Yankees/Rangers game.  This hotel is a good 20 minutes from the ballpark.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for, and the room rate was very reasonable.  We received the rate of around $70 a night with our AAA discount. 
+Positives:  There was hot water and the toilets flushed.
+Negatives:  Please note that there are not hallways, there are doors directly to the outside.  I was told we'd have rooms next to each other (2) but they weren't.  Rooms smelled odd.  Very dirty surroundings, as though they never clean the sidewalks or anything.  Saw several empty cold medicine packages and even a dirty diaper.  Beds were pretty hard, but they usually are in hotels.  The place just didn't feel clean.  I am aggravated that it even received a three star rating on this site, I don't know where these people stayed.  There was supposed to be a "full breakfast" as described on the website, and as the check-in person told us...we went down there to eat at a little before 8 on a Monday morning and there wasn't anything left except for some weird pastry things.  The last straw was last night, I saw a baby roach crawling across the bathroom counter.  Nasty.  Then I got to thinking about other bugs that live in beds and things and I just couldn't sleep!  We drove straight home today and all took showers and washed our clothes in hot water!  
+Also, we were in town for a Yankees/Rangers game.  This hotel is a good 20 minutes...You get what you pay for, and the room rate was very reasonable.  We received the rate of around $70 a night with our AAA discount. Positives:  There was hot water and the toilets flushed.Negatives:  Please note that there are not hallways, there are doors directly to the outside.  I was told we'd have rooms next to each other (2) but they weren't.  Rooms smelled odd.  Very dirty surroundings, as though they never clean the sidewalks or anything.  Saw several empty cold medicine packages and even a dirty diaper.  Beds were pretty hard, but they usually are in hotels.  The place just didn't feel clean.  I am aggravated that it even received a three star rating on this site, I don't know where these people stayed.  There was supposed to be a "full breakfast" as described on the website, and as the check-in person told us...we went down there to eat at a little before 8 on a Monday morning and there wasn't anything left except for some weird pastry things.  The last straw was last night, I saw a baby roach crawling across the bathroom counter.  Nasty.  Then I got to thinking about other bugs that live in beds and things and I just couldn't sleep!  We drove straight home today and all took showers and washed our clothes in hot water!  Also, we were in town for a Yankees/Rangers game.  This hotel is a good 20 minutes from the ballpark.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r168258609-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>168258609</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>Safe, Clean:  Unwelcoming Staff</t>
+  </si>
+  <si>
+    <t>Besides the Funky odor in the room the room was clean and comfortable.  The biggest obstacle was the unfriendly and very militant strict reception at the front desk.  It was like I was an inconvenience to the lady....she wouldn't check me in until 3 pm (it was 2:18 pm) so I had to go kill some time. Then when I did return the room was NOT even ready and I had to wait an extra 18 minutes in the lobby to finally get a key.  Hospitality is the hotel/motel business....the desk clerk needs to take a class in human relations and hospitality care of clients.  Otherwise besides the fact that parking is limited I enjoyed my stay and had a good nights sleep.  The beds don't compare to a holiday inn, but that's why Holiday inn is NOT best western.MoreShow less</t>
+  </si>
+  <si>
+    <t>Besides the Funky odor in the room the room was clean and comfortable.  The biggest obstacle was the unfriendly and very militant strict reception at the front desk.  It was like I was an inconvenience to the lady....she wouldn't check me in until 3 pm (it was 2:18 pm) so I had to go kill some time. Then when I did return the room was NOT even ready and I had to wait an extra 18 minutes in the lobby to finally get a key.  Hospitality is the hotel/motel business....the desk clerk needs to take a class in human relations and hospitality care of clients.  Otherwise besides the fact that parking is limited I enjoyed my stay and had a good nights sleep.  The beds don't compare to a holiday inn, but that's why Holiday inn is NOT best western.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r166764317-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>166764317</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Good getaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location for all the sites in Arlington. No real complaints but ice machine needs fixing. Comfy bed. Ok breakfast. Good value. Would stay again if in area. Nice mall within walking distance and many restaurants close </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r160154771-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>160154771</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Will definitely stay there again</t>
+  </si>
+  <si>
+    <t>We decided to go to Arlington to take our daughter out for her birthday (She is a student at UTA).  I booked a room online and, being in a hurry, put in the wrong date. When I arrived, the young lady at the desk (Star was her name) was unbelievably helpful in straightening out the mess I had made and was able to get us a very nice room for the night. She also took care of canceling the reservation that I had incorrectly booked. The hotel is older but well-kept, breakfast was very good, extra towels were obtained easily, and the location is very convenient (right by the mall and lots of restaurants).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>We decided to go to Arlington to take our daughter out for her birthday (She is a student at UTA).  I booked a room online and, being in a hurry, put in the wrong date. When I arrived, the young lady at the desk (Star was her name) was unbelievably helpful in straightening out the mess I had made and was able to get us a very nice room for the night. She also took care of canceling the reservation that I had incorrectly booked. The hotel is older but well-kept, breakfast was very good, extra towels were obtained easily, and the location is very convenient (right by the mall and lots of restaurants).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r156293536-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>156293536</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Poor management and customer response</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 5 nights. The location is great, feels and looks safe, clean rooms (smelly due to the fact that probably my room used to be for smokers, and the smoke scent is still there). Maid is fast and accurate. Breakfast beyond expectations, large variety of choices, milk, cereal, coffee, bisquets and gravy, fruit, etc.Had problems with my electronic key. Would not work as expected. Went down to the front desk in the morning, and the lady sitting at the desk told me literally "Are you able to get in your room, after trying several times?" I answered yes. She responded "Well, I'm sorry but that's all I can do for you."  "If you can open the door with the electronic key, there's nothing else we can do about it". (The door lock card reader is worn out and needs to be changed). Breakfast is very busy from 6 a.m. to 10 a.m. During our stay the hotel was probably 80% full. Can you imagine a breakfast area with 4 tables? Two families took the 4 tables and relaxed after breakfast by having a family breakfast party. We waited over 35 minutes and had to leave. How can you offer a great breakfast with seating for 16 people?MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 5 nights. The location is great, feels and looks safe, clean rooms (smelly due to the fact that probably my room used to be for smokers, and the smoke scent is still there). Maid is fast and accurate. Breakfast beyond expectations, large variety of choices, milk, cereal, coffee, bisquets and gravy, fruit, etc.Had problems with my electronic key. Would not work as expected. Went down to the front desk in the morning, and the lady sitting at the desk told me literally "Are you able to get in your room, after trying several times?" I answered yes. She responded "Well, I'm sorry but that's all I can do for you."  "If you can open the door with the electronic key, there's nothing else we can do about it". (The door lock card reader is worn out and needs to be changed). Breakfast is very busy from 6 a.m. to 10 a.m. During our stay the hotel was probably 80% full. Can you imagine a breakfast area with 4 tables? Two families took the 4 tables and relaxed after breakfast by having a family breakfast party. We waited over 35 minutes and had to leave. How can you offer a great breakfast with seating for 16 people?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r154528021-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>154528021</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Average to poor</t>
+  </si>
+  <si>
+    <t>I will start by saying that I never liked hotels with access to rooms from the street, but I only realized this when I got there since the pictures on their website were not clear. The rooms were spacious but not perfectly clean (not what you expect in a hotel at least). Employees were polite and helpful. The breakfast was decent although you had to find someone to bring more things all the time since it had very small quantities of everything. The breakfast area is very small and dirty, like the reception area. The price is ok, but I am sure I would be able to find something better on the same price.MoreShow less</t>
+  </si>
+  <si>
+    <t>I will start by saying that I never liked hotels with access to rooms from the street, but I only realized this when I got there since the pictures on their website were not clear. The rooms were spacious but not perfectly clean (not what you expect in a hotel at least). Employees were polite and helpful. The breakfast was decent although you had to find someone to bring more things all the time since it had very small quantities of everything. The breakfast area is very small and dirty, like the reception area. The price is ok, but I am sure I would be able to find something better on the same price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r149517030-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>149517030</t>
+  </si>
+  <si>
+    <t>01/12/2013</t>
+  </si>
+  <si>
+    <t>Bad Customer Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very poor service for being a Gold Returns member, was not considered or gone to help me  out.  My room was suppose to be ready at 3:00, waited until 4:00 and still was not ready until I check in at midnight.   </t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r149392428-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>149392428</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r147752995-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>147752995</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>Great location, very poor service</t>
+  </si>
+  <si>
+    <t>Don't stay in room 109 is next to sprinkles system and you get horrible noise in middle night. Location is great, staff not so helpful, didn't want to print me a receipt cause it was free stay voucher even though at other locations I got one with no problems.  Their computer system is pretty bad.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r141420250-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>141420250</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>I only give it one star because I have to.</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and payed $187.  It is worth no more than $40 a night.  It is a slum hotel.  The bathtub had no plug so we could not give our son a bath.  The fixtures were all falling apart.  There was a stain on the carpet that looked like blood. - To put it simply it was just gross.  I am actually sick to my stomach that we had to spend that much on this.  I will never be returning.  We stayed here just a year ago and were happy enough to come back and I do not know what has been going on with this hotel in that time but it has gone seriously down hill.  This truly gives best western a bad name and I would not suggest staying here unless you are used to staying in filthy conditions.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and payed $187.  It is worth no more than $40 a night.  It is a slum hotel.  The bathtub had no plug so we could not give our son a bath.  The fixtures were all falling apart.  There was a stain on the carpet that looked like blood. - To put it simply it was just gross.  I am actually sick to my stomach that we had to spend that much on this.  I will never be returning.  We stayed here just a year ago and were happy enough to come back and I do not know what has been going on with this hotel in that time but it has gone seriously down hill.  This truly gives best western a bad name and I would not suggest staying here unless you are used to staying in filthy conditions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r138683780-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>138683780</t>
+  </si>
+  <si>
+    <t>08/28/2012</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>me and my family checked in the hotel, the staff was great!, rooms were very nice , we had no negative issues at all, some people are always saying bad things, but i wanted to write and let you huys know this is great, location is the best, good bars and food area.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r137788976-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>137788976</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>BED BUGS</t>
+  </si>
+  <si>
+    <t>DO NOT stay here. Me and my family stayed three nights and discovered there were bed bugs when we woke up with itch bites marks. We even found 2 crawling on the bed. We caught two and took them up to the front desk. We then had to go to extreme measures to make sure they didn't come home with us. When we finally got ahold of the manager the next day he only refunded us one of the three days. We were upset we will never be back at this establishment and if you are brave enough to stay there(which I highly reccomend you don't) make sure to take check for bed bugs. If you take them home it could cosy you hundreds of dollars to get rid of them. Not worth it!MoreShow less</t>
+  </si>
+  <si>
+    <t>DO NOT stay here. Me and my family stayed three nights and discovered there were bed bugs when we woke up with itch bites marks. We even found 2 crawling on the bed. We caught two and took them up to the front desk. We then had to go to extreme measures to make sure they didn't come home with us. When we finally got ahold of the manager the next day he only refunded us one of the three days. We were upset we will never be back at this establishment and if you are brave enough to stay there(which I highly reccomend you don't) make sure to take check for bed bugs. If you take them home it could cosy you hundreds of dollars to get rid of them. Not worth it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r130698822-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>130698822</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Terrible place to stay</t>
+  </si>
+  <si>
+    <t>I travel to Arlington once a year for volunteer work. I booked this place from Hotwire for 3 people/3nights. Upon check-in I was told I had 1 Queen bed/smoking room. I said I had booked 3 people and we weren't sleeping in the same bed. He said that's what you get when you book with Hotwire. You don't get to ask for bed size etc. He finally said he thought he had a room that was ready. It did have 2 beds but no bathroom door. As we had to leave to go to our assignment I didn't say anything. The next morning I asked the front desk it they could get us a door for our bathroom. She said she would look into it and see if somthing could be done. Upon returning that night we still had to bathroom door and the floor surrounding our sink/vanity area was sopping wet. OK, it's late we'll work around it. That night our neighbors in the adjoining room decided it would be a good place to have a party. After listening to this for several hours outside our room I called the front desk. He did go out and have a conversation with them about the noise but it only lasted about 3 minutes and then the party was back on louder than ever. After another hour of this I again called the front desk but now they won't answer the...I travel to Arlington once a year for volunteer work. I booked this place from Hotwire for 3 people/3nights. Upon check-in I was told I had 1 Queen bed/smoking room. I said I had booked 3 people and we weren't sleeping in the same bed. He said that's what you get when you book with Hotwire. You don't get to ask for bed size etc. He finally said he thought he had a room that was ready. It did have 2 beds but no bathroom door. As we had to leave to go to our assignment I didn't say anything. The next morning I asked the front desk it they could get us a door for our bathroom. She said she would look into it and see if somthing could be done. Upon returning that night we still had to bathroom door and the floor surrounding our sink/vanity area was sopping wet. OK, it's late we'll work around it. That night our neighbors in the adjoining room decided it would be a good place to have a party. After listening to this for several hours outside our room I called the front desk. He did go out and have a conversation with them about the noise but it only lasted about 3 minutes and then the party was back on louder than ever. After another hour of this I again called the front desk but now they won't answer the phone. The party went on until around 3 a.m. and no sleep that night. The next morning I asked the desk clerk if there wasn't something that could be done about our situation. She was very accomodating and found us a new room with a bathroom door, dry floors and no partiers. I will never stay at this hotel again. I have never been so disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I travel to Arlington once a year for volunteer work. I booked this place from Hotwire for 3 people/3nights. Upon check-in I was told I had 1 Queen bed/smoking room. I said I had booked 3 people and we weren't sleeping in the same bed. He said that's what you get when you book with Hotwire. You don't get to ask for bed size etc. He finally said he thought he had a room that was ready. It did have 2 beds but no bathroom door. As we had to leave to go to our assignment I didn't say anything. The next morning I asked the front desk it they could get us a door for our bathroom. She said she would look into it and see if somthing could be done. Upon returning that night we still had to bathroom door and the floor surrounding our sink/vanity area was sopping wet. OK, it's late we'll work around it. That night our neighbors in the adjoining room decided it would be a good place to have a party. After listening to this for several hours outside our room I called the front desk. He did go out and have a conversation with them about the noise but it only lasted about 3 minutes and then the party was back on louder than ever. After another hour of this I again called the front desk but now they won't answer the...I travel to Arlington once a year for volunteer work. I booked this place from Hotwire for 3 people/3nights. Upon check-in I was told I had 1 Queen bed/smoking room. I said I had booked 3 people and we weren't sleeping in the same bed. He said that's what you get when you book with Hotwire. You don't get to ask for bed size etc. He finally said he thought he had a room that was ready. It did have 2 beds but no bathroom door. As we had to leave to go to our assignment I didn't say anything. The next morning I asked the front desk it they could get us a door for our bathroom. She said she would look into it and see if somthing could be done. Upon returning that night we still had to bathroom door and the floor surrounding our sink/vanity area was sopping wet. OK, it's late we'll work around it. That night our neighbors in the adjoining room decided it would be a good place to have a party. After listening to this for several hours outside our room I called the front desk. He did go out and have a conversation with them about the noise but it only lasted about 3 minutes and then the party was back on louder than ever. After another hour of this I again called the front desk but now they won't answer the phone. The party went on until around 3 a.m. and no sleep that night. The next morning I asked the desk clerk if there wasn't something that could be done about our situation. She was very accomodating and found us a new room with a bathroom door, dry floors and no partiers. I will never stay at this hotel again. I have never been so disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r128471118-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>128471118</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>I like this place</t>
+  </si>
+  <si>
+    <t>It does seem a bit run down although I think they might have done some work on it recently.  We stayed three days and the room was clean and comfortable.  The breakfast was good, had a decent selection of hot items and really good coffee (I didn't bother to use the in room coffee maker).  Despite the fact that the place filled up over the weekend I never really noticed a noise problem.  Yes, the television was still the old style (not flat screen) but to tell you the truth if mine hadn't broken I'd still be using it and I didn't come to town to watch tv anyway.  It's in a great area and access to the highway was easy.  I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>It does seem a bit run down although I think they might have done some work on it recently.  We stayed three days and the room was clean and comfortable.  The breakfast was good, had a decent selection of hot items and really good coffee (I didn't bother to use the in room coffee maker).  Despite the fact that the place filled up over the weekend I never really noticed a noise problem.  Yes, the television was still the old style (not flat screen) but to tell you the truth if mine hadn't broken I'd still be using it and I didn't come to town to watch tv anyway.  It's in a great area and access to the highway was easy.  I'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r127293187-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>127293187</t>
+  </si>
+  <si>
+    <t>04/05/2012</t>
+  </si>
+  <si>
+    <t>Worst. Place. Ever. Disgrace to the Best Western name.</t>
+  </si>
+  <si>
+    <t>It is a motel and their are no suites to speak of.  People were taking apart their car and installing speakers in the parking lot.  Owner/manager (not sure) was horribly rude.  Go across the street and stay at Holiday Inn.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r119240118-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>119240118</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>Good value and excellent staff</t>
+  </si>
+  <si>
+    <t>Booked direct with Best Western and got a better rate than online services. Room was very clean with all amenities. Staff was very accomodating to all our requests. Breakfast was just ok, but had the basics for cereal  and toast. Very small eating area was a minor problem as both days there were more people than table space. We would definately stay here again. Lots of restaurants and shops close by. For extra quiet ask for a room on the back side. The only two negatives were the extremely noisy air conditioning units and the hotel is not completely non smoking. We had a non smoking room as did the people below us, but they were constantly smoking outside their door with the smoke going through their windows and ours.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Booked direct with Best Western and got a better rate than online services. Room was very clean with all amenities. Staff was very accomodating to all our requests. Breakfast was just ok, but had the basics for cereal  and toast. Very small eating area was a minor problem as both days there were more people than table space. We would definately stay here again. Lots of restaurants and shops close by. For extra quiet ask for a room on the back side. The only two negatives were the extremely noisy air conditioning units and the hotel is not completely non smoking. We had a non smoking room as did the people below us, but they were constantly smoking outside their door with the smoke going through their windows and ours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r117717726-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>117717726</t>
+  </si>
+  <si>
+    <t>09/05/2011</t>
+  </si>
+  <si>
+    <t>Just right... for travel on a Budget</t>
+  </si>
+  <si>
+    <t>Modern, not too big, adequate parking (and the place was full, for the Cowboy Classic football game - LSU and Oregon).  The rooms were up to date and comfortable, the bed perfect, the AC did it's job...  I liked the location - easy to get onto the freeway system.  Dallas / Forth Worth is a hugely spread out city and really confusing for someone used to hills and such for landmarks (central Texas being pretty flat), but being here was a good central location, and it's close to a nice enclosed shopping mall and it was a good "neighborhood".   There was a very small pool, which would be a positive if traveling with children, I guess.  Didn't partake in breakfast, but it looked like cereal and some kind of breads and yogurt..  basic fuel I suppose.   I frankly don't remember what I paid - it was very reasonable, though, recollecting my searches for the Arlington area...MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Modern, not too big, adequate parking (and the place was full, for the Cowboy Classic football game - LSU and Oregon).  The rooms were up to date and comfortable, the bed perfect, the AC did it's job...  I liked the location - easy to get onto the freeway system.  Dallas / Forth Worth is a hugely spread out city and really confusing for someone used to hills and such for landmarks (central Texas being pretty flat), but being here was a good central location, and it's close to a nice enclosed shopping mall and it was a good "neighborhood".   There was a very small pool, which would be a positive if traveling with children, I guess.  Didn't partake in breakfast, but it looked like cereal and some kind of breads and yogurt..  basic fuel I suppose.   I frankly don't remember what I paid - it was very reasonable, though, recollecting my searches for the Arlington area...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r83886579-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>83886579</t>
+  </si>
+  <si>
+    <t>10/17/2010</t>
+  </si>
+  <si>
+    <t>Not the safest place to stay with children</t>
+  </si>
+  <si>
+    <t>The room was very clean which was very important to us.  The brochures in the room were the only information we had about the hotel and restaurants.  It was misleading.  The restaurants listed were actually closed and/or did not deliver.  That was frustrating.  We parked on the back side of the hotel due to the location of our room.  There was a man standing by the door waiting for someone to open it with a card so he could enter.  That was very alarming.  Our vehicle was broken into the third night we were there.  The tool boxes were broken into and most all my husbands tools that he travels with were taken.  The laundry room was located in another building which was very inconvenient.  We would be gone during the day so I would need to do laundry in the evening.  I was a little intimidated going to the other building alone.  I did not feel safe.  The workout room was nice.  It would have been nicer if they would have had headphones to actually hear the television.  They said they were all broken.  So, no sound to the television that was attached on the treadmill while you walked.  
+Just a few details could make this so much better.  
+We also found a drawer full of clothing that belonged to someone else when we first arraived in our room.  The label had the person's name on it and through...The room was very clean which was very important to us.  The brochures in the room were the only information we had about the hotel and restaurants.  It was misleading.  The restaurants listed were actually closed and/or did not deliver.  That was frustrating.  We parked on the back side of the hotel due to the location of our room.  There was a man standing by the door waiting for someone to open it with a card so he could enter.  That was very alarming.  Our vehicle was broken into the third night we were there.  The tool boxes were broken into and most all my husbands tools that he travels with were taken.  The laundry room was located in another building which was very inconvenient.  We would be gone during the day so I would need to do laundry in the evening.  I was a little intimidated going to the other building alone.  I did not feel safe.  The workout room was nice.  It would have been nicer if they would have had headphones to actually hear the television.  They said they were all broken.  So, no sound to the television that was attached on the treadmill while you walked.  Just a few details could make this so much better.  We also found a drawer full of clothing that belonged to someone else when we first arraived in our room.  The label had the person's name on it and through facebook we were able to contact the owner.  She was very very thankful to hear that someone had found the clothes.  She said they had called back to the hotel explaining they had forgotten their clothing and whoever they spoke with told them that no clothing had been found.  As far as convenience to the attractions this hotel was a great spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>The room was very clean which was very important to us.  The brochures in the room were the only information we had about the hotel and restaurants.  It was misleading.  The restaurants listed were actually closed and/or did not deliver.  That was frustrating.  We parked on the back side of the hotel due to the location of our room.  There was a man standing by the door waiting for someone to open it with a card so he could enter.  That was very alarming.  Our vehicle was broken into the third night we were there.  The tool boxes were broken into and most all my husbands tools that he travels with were taken.  The laundry room was located in another building which was very inconvenient.  We would be gone during the day so I would need to do laundry in the evening.  I was a little intimidated going to the other building alone.  I did not feel safe.  The workout room was nice.  It would have been nicer if they would have had headphones to actually hear the television.  They said they were all broken.  So, no sound to the television that was attached on the treadmill while you walked.  
+Just a few details could make this so much better.  
+We also found a drawer full of clothing that belonged to someone else when we first arraived in our room.  The label had the person's name on it and through...The room was very clean which was very important to us.  The brochures in the room were the only information we had about the hotel and restaurants.  It was misleading.  The restaurants listed were actually closed and/or did not deliver.  That was frustrating.  We parked on the back side of the hotel due to the location of our room.  There was a man standing by the door waiting for someone to open it with a card so he could enter.  That was very alarming.  Our vehicle was broken into the third night we were there.  The tool boxes were broken into and most all my husbands tools that he travels with were taken.  The laundry room was located in another building which was very inconvenient.  We would be gone during the day so I would need to do laundry in the evening.  I was a little intimidated going to the other building alone.  I did not feel safe.  The workout room was nice.  It would have been nicer if they would have had headphones to actually hear the television.  They said they were all broken.  So, no sound to the television that was attached on the treadmill while you walked.  Just a few details could make this so much better.  We also found a drawer full of clothing that belonged to someone else when we first arraived in our room.  The label had the person's name on it and through facebook we were able to contact the owner.  She was very very thankful to hear that someone had found the clothes.  She said they had called back to the hotel explaining they had forgotten their clothing and whoever they spoke with told them that no clothing had been found.  As far as convenience to the attractions this hotel was a great spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r25100543-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>25100543</t>
+  </si>
+  <si>
+    <t>02/24/2009</t>
+  </si>
+  <si>
+    <t>Great location, nice hotel.</t>
+  </si>
+  <si>
+    <t>This hotel is located about 200 ft off of a very busy street with just about every restaurant and store you could ever want.  It is about 30 minutes from Dallas (if you don't have any traffic) and about 20 minutes from Fort Worth.  The waffles for breakfast were great.  The room was very clean and looked like it had been re-done in the last 5 years or so.  We had a fridge  and microwave in our room, which was a plus.  We would stay there again.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r11013935-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>11013935</t>
+  </si>
+  <si>
+    <t>11/23/2007</t>
+  </si>
+  <si>
+    <t>yunny</t>
+  </si>
+  <si>
+    <t>The hotel was well taken care of.  The rooms were nice and clean and our stay was very enjoyable.  It was easy access to all the attractions that Arlington has to offer.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r7472276-Motel_6_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>7472276</t>
+  </si>
+  <si>
+    <t>04/25/2007</t>
+  </si>
+  <si>
+    <t>Not Bad for a quick trip.</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay if you are on business and are looking for a good deal.  Rooms are clean and large and the area is nice.  Right across the street from a mall and a lot of stores and resturants.  In between Dallas and Fort Worth so it's easy to get to both quickly.  At night the traffic is sometimes noisy but calms down around 10pm.  Staff was helpful and they have a breakfast in the morning that most people go to.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2111,4877 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>147</v>
+      </c>
+      <c r="X17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>186</v>
+      </c>
+      <c r="X23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>99</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X24" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>185</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>202</v>
+      </c>
+      <c r="X25" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>211</v>
+      </c>
+      <c r="X26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>219</v>
+      </c>
+      <c r="X27" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>219</v>
+      </c>
+      <c r="X28" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>210</v>
+      </c>
+      <c r="O29" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>233</v>
+      </c>
+      <c r="X29" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" t="s">
+        <v>239</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>210</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>219</v>
+      </c>
+      <c r="X30" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" t="s">
+        <v>244</v>
+      </c>
+      <c r="L31" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>219</v>
+      </c>
+      <c r="X31" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>74</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>253</v>
+      </c>
+      <c r="X32" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>261</v>
+      </c>
+      <c r="O33" t="s">
+        <v>99</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>262</v>
+      </c>
+      <c r="X33" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>261</v>
+      </c>
+      <c r="O34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>270</v>
+      </c>
+      <c r="X34" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>278</v>
+      </c>
+      <c r="O35" t="s">
+        <v>99</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>279</v>
+      </c>
+      <c r="X35" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" t="s">
+        <v>286</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>278</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>278</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>279</v>
+      </c>
+      <c r="X37" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>278</v>
+      </c>
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>299</v>
+      </c>
+      <c r="J39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K39" t="s">
+        <v>301</v>
+      </c>
+      <c r="L39" t="s">
+        <v>302</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>303</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>304</v>
+      </c>
+      <c r="X39" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>307</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>308</v>
+      </c>
+      <c r="J40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" t="s">
+        <v>313</v>
+      </c>
+      <c r="K41" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" t="s">
+        <v>315</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>303</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>317</v>
+      </c>
+      <c r="J42" t="s">
+        <v>318</v>
+      </c>
+      <c r="K42" t="s">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s">
+        <v>320</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>321</v>
+      </c>
+      <c r="O42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>322</v>
+      </c>
+      <c r="X42" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s">
+        <v>329</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>331</v>
+      </c>
+      <c r="J44" t="s">
+        <v>332</v>
+      </c>
+      <c r="K44" t="s">
+        <v>333</v>
+      </c>
+      <c r="L44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>335</v>
+      </c>
+      <c r="O44" t="s">
+        <v>99</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>336</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>337</v>
+      </c>
+      <c r="J45" t="s">
+        <v>338</v>
+      </c>
+      <c r="K45" t="s">
+        <v>339</v>
+      </c>
+      <c r="L45" t="s">
+        <v>340</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>335</v>
+      </c>
+      <c r="O45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>341</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>342</v>
+      </c>
+      <c r="J46" t="s">
+        <v>338</v>
+      </c>
+      <c r="K46" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s">
+        <v>344</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>335</v>
+      </c>
+      <c r="O46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>345</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>346</v>
+      </c>
+      <c r="J47" t="s">
+        <v>347</v>
+      </c>
+      <c r="K47" t="s">
+        <v>348</v>
+      </c>
+      <c r="L47" t="s">
+        <v>349</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>322</v>
+      </c>
+      <c r="X47" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>352</v>
+      </c>
+      <c r="J48" t="s">
+        <v>353</v>
+      </c>
+      <c r="K48" t="s">
+        <v>354</v>
+      </c>
+      <c r="L48" t="s">
+        <v>355</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>356</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>357</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>358</v>
+      </c>
+      <c r="J49" t="s">
+        <v>359</v>
+      </c>
+      <c r="K49" t="s">
+        <v>360</v>
+      </c>
+      <c r="L49" t="s">
+        <v>361</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>356</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>362</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>363</v>
+      </c>
+      <c r="J50" t="s">
+        <v>364</v>
+      </c>
+      <c r="K50" t="s">
+        <v>365</v>
+      </c>
+      <c r="L50" t="s">
+        <v>366</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>367</v>
+      </c>
+      <c r="O50" t="s">
+        <v>74</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>368</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>369</v>
+      </c>
+      <c r="J51" t="s">
+        <v>370</v>
+      </c>
+      <c r="K51" t="s">
+        <v>371</v>
+      </c>
+      <c r="L51" t="s">
+        <v>372</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>373</v>
+      </c>
+      <c r="O51" t="s">
+        <v>99</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>374</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>375</v>
+      </c>
+      <c r="J52" t="s">
+        <v>376</v>
+      </c>
+      <c r="K52" t="s">
+        <v>377</v>
+      </c>
+      <c r="L52" t="s">
+        <v>378</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>373</v>
+      </c>
+      <c r="O52" t="s">
+        <v>74</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>379</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>380</v>
+      </c>
+      <c r="J53" t="s">
+        <v>381</v>
+      </c>
+      <c r="K53" t="s">
+        <v>382</v>
+      </c>
+      <c r="L53" t="s">
+        <v>383</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>373</v>
+      </c>
+      <c r="O53" t="s">
+        <v>99</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>384</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>385</v>
+      </c>
+      <c r="J54" t="s">
+        <v>386</v>
+      </c>
+      <c r="K54" t="s">
+        <v>387</v>
+      </c>
+      <c r="L54" t="s">
+        <v>388</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>389</v>
+      </c>
+      <c r="O54" t="s">
+        <v>74</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>390</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>391</v>
+      </c>
+      <c r="J55" t="s">
+        <v>392</v>
+      </c>
+      <c r="K55" t="s">
+        <v>393</v>
+      </c>
+      <c r="L55" t="s">
+        <v>394</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>389</v>
+      </c>
+      <c r="O55" t="s">
+        <v>99</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>395</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>396</v>
+      </c>
+      <c r="J56" t="s">
+        <v>397</v>
+      </c>
+      <c r="K56" t="s">
+        <v>398</v>
+      </c>
+      <c r="L56" t="s">
+        <v>399</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>400</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>402</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>403</v>
+      </c>
+      <c r="J57" t="s">
+        <v>404</v>
+      </c>
+      <c r="K57" t="s">
+        <v>405</v>
+      </c>
+      <c r="L57" t="s">
+        <v>406</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>400</v>
+      </c>
+      <c r="O57" t="s">
+        <v>74</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>408</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>409</v>
+      </c>
+      <c r="J58" t="s">
+        <v>410</v>
+      </c>
+      <c r="K58" t="s">
+        <v>411</v>
+      </c>
+      <c r="L58" t="s">
+        <v>412</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>413</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>414</v>
+      </c>
+      <c r="J59" t="s">
+        <v>415</v>
+      </c>
+      <c r="K59" t="s">
+        <v>416</v>
+      </c>
+      <c r="L59" t="s">
+        <v>417</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>418</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>420</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>421</v>
+      </c>
+      <c r="J60" t="s">
+        <v>422</v>
+      </c>
+      <c r="K60" t="s">
+        <v>423</v>
+      </c>
+      <c r="L60" t="s">
+        <v>424</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>425</v>
+      </c>
+      <c r="O60" t="s">
+        <v>74</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>427</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>428</v>
+      </c>
+      <c r="J61" t="s">
+        <v>429</v>
+      </c>
+      <c r="K61" t="s">
+        <v>430</v>
+      </c>
+      <c r="L61" t="s">
+        <v>431</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>425</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>433</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J62" t="s">
+        <v>435</v>
+      </c>
+      <c r="K62" t="s">
+        <v>436</v>
+      </c>
+      <c r="L62" t="s">
+        <v>437</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>438</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>439</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>440</v>
+      </c>
+      <c r="J63" t="s">
+        <v>441</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>438</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>442</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>443</v>
+      </c>
+      <c r="J64" t="s">
+        <v>444</v>
+      </c>
+      <c r="K64" t="s">
+        <v>445</v>
+      </c>
+      <c r="L64" t="s">
+        <v>446</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>447</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>448</v>
+      </c>
+      <c r="J65" t="s">
+        <v>449</v>
+      </c>
+      <c r="K65" t="s">
+        <v>450</v>
+      </c>
+      <c r="L65" t="s">
+        <v>451</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>452</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>454</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>455</v>
+      </c>
+      <c r="J66" t="s">
+        <v>456</v>
+      </c>
+      <c r="K66" t="s">
+        <v>457</v>
+      </c>
+      <c r="L66" t="s">
+        <v>458</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>459</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>460</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>461</v>
+      </c>
+      <c r="J67" t="s">
+        <v>462</v>
+      </c>
+      <c r="K67" t="s">
+        <v>463</v>
+      </c>
+      <c r="L67" t="s">
+        <v>464</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>459</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>466</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>467</v>
+      </c>
+      <c r="J68" t="s">
+        <v>468</v>
+      </c>
+      <c r="K68" t="s">
+        <v>469</v>
+      </c>
+      <c r="L68" t="s">
+        <v>470</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>471</v>
+      </c>
+      <c r="O68" t="s">
+        <v>74</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>473</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>474</v>
+      </c>
+      <c r="J69" t="s">
+        <v>475</v>
+      </c>
+      <c r="K69" t="s">
+        <v>476</v>
+      </c>
+      <c r="L69" t="s">
+        <v>477</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>478</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>480</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>481</v>
+      </c>
+      <c r="J70" t="s">
+        <v>482</v>
+      </c>
+      <c r="K70" t="s">
+        <v>483</v>
+      </c>
+      <c r="L70" t="s">
+        <v>484</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>485</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>486</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>487</v>
+      </c>
+      <c r="J71" t="s">
+        <v>488</v>
+      </c>
+      <c r="K71" t="s">
+        <v>489</v>
+      </c>
+      <c r="L71" t="s">
+        <v>490</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>491</v>
+      </c>
+      <c r="O71" t="s">
+        <v>99</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>493</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>494</v>
+      </c>
+      <c r="J72" t="s">
+        <v>495</v>
+      </c>
+      <c r="K72" t="s">
+        <v>496</v>
+      </c>
+      <c r="L72" t="s">
+        <v>497</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>498</v>
+      </c>
+      <c r="O72" t="s">
+        <v>86</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>500</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>501</v>
+      </c>
+      <c r="J73" t="s">
+        <v>502</v>
+      </c>
+      <c r="K73" t="s">
+        <v>503</v>
+      </c>
+      <c r="L73" t="s">
+        <v>504</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>505</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>507</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>508</v>
+      </c>
+      <c r="J74" t="s">
+        <v>509</v>
+      </c>
+      <c r="K74" t="s">
+        <v>510</v>
+      </c>
+      <c r="L74" t="s">
+        <v>511</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>512</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>513</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>514</v>
+      </c>
+      <c r="J75" t="s">
+        <v>515</v>
+      </c>
+      <c r="K75" t="s">
+        <v>516</v>
+      </c>
+      <c r="L75" t="s">
+        <v>517</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>518</v>
+      </c>
+      <c r="O75" t="s">
+        <v>74</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>31137</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>519</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>520</v>
+      </c>
+      <c r="J76" t="s">
+        <v>521</v>
+      </c>
+      <c r="K76" t="s">
+        <v>522</v>
+      </c>
+      <c r="L76" t="s">
+        <v>523</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>524</v>
+      </c>
+      <c r="O76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>523</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_544.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_544.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="597">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>gspeed73</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Mallory O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r515678411-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>I rarely write negative reviews.. I try to calm down before I do. It has been one month and I decided that I needed to warn anyone taking their children here. It is NO PLACE for a family. I will NEVER pick this hotel chain for anything again. We knew the area, we used to live there. We got a good rate HOWEVER finding hair in the bedding, cigarette burns, stained towels... We checked out almost as quickly as we checked in. Never again.More</t>
   </si>
   <si>
+    <t>Brianna Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r505921186-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>After driving 15 hours straight I was desperately needing sleep and a safe hotel to stay at because I was traveling alone with my 18 month old. The hotel staff was very understanding and let us check in before chack out time allowing us to rest all day and through the night to be fully rested to continue the ride. The area had a Walmart 5 minutes away and a mall across the street. It seemed like a safe area. No scary people around. The room was very comfortable and looked new and clean. There was a fridge and microwave as well. It was a wonderful experience.</t>
   </si>
   <si>
+    <t>JWO2810</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r489655030-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>MakoaVC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r487705231-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>I checked into this Motel 6 to give it a try as the rates were cheap and we needed an extended stay while visiting family in Arlington.  This was my first and last Motel 6 experience ever.  The room was gross.  The light fixtures were falling off the walls and they only placed one light bulb in a two bulb lamp so the room was dark.  It also felt very gloomy and damp.  Extension cords were used to plug in the television from an outlet across the room.  It was so bad we checked out early.  Such a bad first experience in a Motel 6 and definitely the last.</t>
   </si>
   <si>
+    <t>corinthian m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r470013271-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Brett C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r428385279-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Kendra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r421349448-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -316,6 +340,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>pgb0517</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r420327212-Motel_6_Arlington-Arlington_Texas.html</t>
@@ -346,6 +373,9 @@
 I told them it was clear they know nothing about customer...(Zero rating if I could.) We had stayed at this location a few times when it was a Best Western. It was great. This time, I saw it had changed to Motel 6, but we’ve had good luck with Motel 6 since their big remodeling campaign. We reserved the room through Hotels.com. The confirmation promised a fridge, microwave, and noon checkout time.The room had no appliances. And the staff was adamant that checkout time was 11 a.m. They finally got us a fridge, but no microwave, and only budged on the checkout time when the Hotels.com rep whom I had called insisted on it. The staff kept telling me how I, the customer, was wrong to expect appliances without requesting them in advance because “they get stolen” and how Hotels.com was wrong to promise a noon checkout time.Could we talk to the manager? No, the clerk said, tapping her watch. It was late (past ten when we checked in) and no, she would not call the manager, either. A fellow who I assume was a night manager (although from appearances, this looks like a family running the joint) offered to bring a fridge in from another room. Because my wife, daughter, and little grandson were already getting settled and we were all tired — this was after 10:30 p.m. — I said just bring us a fridge.I told them it was clear they know nothing about customer service in the United States. I suggested they take a course in hotel management and customer service if they are going to run a hotel in this country. But wait, there’s more.When I got back to the room, it had a fridge. That’s when my daughter noticed that the front third of the room had sopping-wet carpet and what appeared to be mold growing under a footstool. The carpet was drenched from wall to wall. I knew I could not keep the room.  And the safety latch on the door was broken off, so there was no way to secure it. I later read online reviews for this place citing the same problems over the last several months.I demanded a different room. They quickly offered the room next door, but it smelled of tobacco smoke in a nonsmoking hotel.Finally, we got a room, and had to move all our stuff with no help from the two employees (not counting the desk clerk).This hotel is a disgrace to Motel 6. Obviously, the new owner has no respect for customers or the Motel 6 brand, and the staff has no idea what Americans expect at a hotel. Finally, a refund.When I first called Motel 6 days ago, they put me on hold and called the hotel manager. She said that she would issue a refund, but I’d have to get Hotels.com to process it because of the credit card. Later, however, she told Hotels.com she would not issue any refund. She also sent me a form letter by email that had nothing to do with my concerns but saying again, no refund. The manager never once acknowledged the problems, much less apologize for them. She claimed she offered me a refund the night we were there, but that’s not true. And besides, it was late at night and we had a small child with us. What were we supposed to do, sleep in the car?Over the following few days, I sent three unanswered emails to Motel 6 guest relations. I made several more phone calls over the last couple of weeks, talking to reps who could not transfer my call to a supervisor, and four more phone calls just today (Sept. 19) to Motel 6. I talked all the way from the first-line guest relations staff up to the G6 Hospitality executive offices.And the best I could get from the executive office was a refund of about three fourths of the night’s stay, to be sent by check in 30 business days. That was following a smaller refund offer that I declined. The G6 policy is that the customer has to go to the franchise owner for any hope of a full refund, even though that manager had already lied and demonstrated a total lack of regard for her guests’ experience.  I asked Motel 6 guest relations how bad things would have to get before corporate would take care of the customer. I never got an answer. This location has a manager or franchise owner who just should not be in the business. Why go into this business if you want to treat your customers like garbage? Motel 6 and G6 Hospitality obviously do not have ways for their phone staff to take care of a customer when all else has failed. And they kept telling me I had to call that lousy manager again. No way was I ever going to speak to anybody at that location. She had already said no several times and misled the people I was talking to. By the way, I have sent the code enforcement folks in Arlington an email about the water and possible mold.I am going to close this affair out by writing a letter to the G6 CEO in Carrollton, Texas. Then wait for my check …More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r396334668-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -364,6 +394,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Katie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r394089889-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -382,6 +415,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Albert P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r394025960-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -397,6 +433,9 @@
     <t>During our stay from July 13 -17th  2016 While the room was occupied the Manager/Owner Rima Yacliwala allowed a third party cleaning company to steam clean the carpet of the room.  We only found this out when we returned from a business meeting and noticed the company cleaning the carpet next to ours. When we entered our room we noticed our carpet was still wet from the steam cleaners.  The staff , Manager/Owner and cleaning company was completely rude, and told us well “we can’t just shut down”!  They offered no compensation when asked. This location lacks any regard for the customers, later that day we found out from other staying that weekend that the same occurred to their rooms. This Location and owner need some serious customer training.  NO NOT STAY HERE!!!More</t>
   </si>
   <si>
+    <t>Kerry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r387179053-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -418,6 +457,9 @@
     <t>A few issues here. After check-in, I went into the room, which smelled like smoke considering it was non-smoking, and checked for bed bugs.  No bed bugs but as I was pulling back the sheets, I noticed the padding under the sheets was stained pretty badly.  I also found a USED CONDOM between the headboard of the bed and the wall.  The front desk clerk came by to clean it and apologized - but that was it - I was never offered a new room, NOR during my entire stay, and several days after, did a manager call me to address the issue.  I finally called the manager, Rima, and she was very unprofessional.  At first I thought that maybe she was unaware of the situation, but she made it clear that she knew about it and WAS THERE ONSITE that night! She said, "well I sent the the front desk clerk came to clean it..." and then said, "well what do you want me to do?"  I explained that yes, it was cleaned, but a manager should have further handled the situation DURING my stay.  First of all, she should have accompanied the clerk and apologized personally, as a manager should.    I was the one to initiate the call DAYS later and let her know how disappointed I was, she didn't seem to care much and gave me attitude.  She finally offered a discount for my next stay (remember,...A few issues here. After check-in, I went into the room, which smelled like smoke considering it was non-smoking, and checked for bed bugs.  No bed bugs but as I was pulling back the sheets, I noticed the padding under the sheets was stained pretty badly.  I also found a USED CONDOM between the headboard of the bed and the wall.  The front desk clerk came by to clean it and apologized - but that was it - I was never offered a new room, NOR during my entire stay, and several days after, did a manager call me to address the issue.  I finally called the manager, Rima, and she was very unprofessional.  At first I thought that maybe she was unaware of the situation, but she made it clear that she knew about it and WAS THERE ONSITE that night! She said, "well I sent the the front desk clerk came to clean it..." and then said, "well what do you want me to do?"  I explained that yes, it was cleaned, but a manager should have further handled the situation DURING my stay.  First of all, she should have accompanied the clerk and apologized personally, as a manager should.    I was the one to initiate the call DAYS later and let her know how disappointed I was, she didn't seem to care much and gave me attitude.  She finally offered a discount for my next stay (remember, I was the one to call her!) but I refused the offer and told her I would never return.  Next up, the latch on the door was missing, but there's a sign on the door that encourages to latch your door at night...that should be fixed.  Also, my online confirmation AND the pizza menu by the phone in the room says check-out is at noon...well the clerk called us on check-out day and kept saying "No, no, check out is at 11."  I talked to him up front while we checked out and he pointed to a small sign on the wall where it says check out is at 11.  I showed him my confirmation email AND the sign in the room which all say NOON but all he had to say was, "Oh..."  and didn't apologize for being rude. Also during check-out, while we were gathering our things, the housekeeping lady came by and I explained the issue, she rolled her eyes and said, well checkout is at 11.  Everyone I was in contact with at this location seemed really unprofessional and rude.  No customer service or management skills what so ever.  The price is low but you don't get much at ALL.  The WiFi is even bad, I'd pay more to go somewhere else.More</t>
   </si>
   <si>
+    <t>Brooke D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r378251546-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -436,6 +478,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Brendalou72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r370294281-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -451,6 +496,9 @@
     <t xml:space="preserve">Whilst this motel is little out of town i would still recommend this motel due to the cleanliness of the rooms and  the friendly staff. The rooms houses a large king sized bed, a lounge, a work station, TV air con and a beautiful bathroom with a bath.  There is a bus service available a short walk from the motel, failing that the hotel staff are more than happy to arrange transport to your destination. </t>
   </si>
   <si>
+    <t>rol51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r356656817-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -478,6 +526,9 @@
     <t>i had stayed here in the past about same time every year , but come to find out Motel 6 bought out the former Best Western, well i didn't have time to look elsewhere so we ended up staying here, everything seemed to be the same except no complementary breakfast, no big deal prices were very cheap , but as soon as we checked in there was guests just hanging out in the balcony or suspicious  looking people in and out , which made us uncomfortable and just staring what bags we were bringing in, we will definitely not stay here no more, maybe its the cheap prices that bring people in that can't really afford a better place to stay , id rather pay a little more  and feel safe and comfortable than be around a bunch of hoodlums and low life, also the grounds was very dirtyi will look elsewhere.More</t>
   </si>
   <si>
+    <t>Jonita79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r344079189-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -496,6 +547,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Kiersten R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r339763439-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -511,6 +565,9 @@
     <t xml:space="preserve">Read the reviews before staying here. The reviews were right. Don't stay here if you can avoid it. The only good thing was the bed was very comfortable. There was NO mini fridge and NO breakfast. They did serve coffee BUT it was cold and awful!!!  </t>
   </si>
   <si>
+    <t>Meredith R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r318299984-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -532,6 +589,9 @@
     <t>Upon arriving to the motel which is right off the interstate,  we learned there were no non-smoking rooms left. We are both non-smokers so this was less than ideal. They suggested we come back in the morning to see if anyone would check out of a non-smoking room and we could have it. In terms of it being close to the Entertainment District the location was ideal but there isn't anything "fun" to do around the area other than the stadium and ball park. A rental car is highly recommended as there is no transit around. When we went back to ask about a non smoking room they said since we booked through hotels.com we couldn't change. We were stuck despite what they had told us the day before. We also happened to walk by a man who was sleeping in his car in the parking lot.  The parking lot is poorly lit and is scary especially for young children and ladies. There was a fridge in our room that was covered in stains and old dust and stains all over the walls. I noticed a spider web in the bathroom on the floor in the corner and it was there for our entire stay so it was clear the rooms are not thoroughly cleaned. Our window did not have a screen either so it was difficult to air the room out (we ended up buying Febreeze to help with...Upon arriving to the motel which is right off the interstate,  we learned there were no non-smoking rooms left. We are both non-smokers so this was less than ideal. They suggested we come back in the morning to see if anyone would check out of a non-smoking room and we could have it. In terms of it being close to the Entertainment District the location was ideal but there isn't anything "fun" to do around the area other than the stadium and ball park. A rental car is highly recommended as there is no transit around. When we went back to ask about a non smoking room they said since we booked through hotels.com we couldn't change. We were stuck despite what they had told us the day before. We also happened to walk by a man who was sleeping in his car in the parking lot.  The parking lot is poorly lit and is scary especially for young children and ladies. There was a fridge in our room that was covered in stains and old dust and stains all over the walls. I noticed a spider web in the bathroom on the floor in the corner and it was there for our entire stay so it was clear the rooms are not thoroughly cleaned. Our window did not have a screen either so it was difficult to air the room out (we ended up buying Febreeze to help with the smell) for fear of having someone come in. We were very happy to leave this morning. Not recommended. More</t>
   </si>
   <si>
+    <t>Kinleys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r267160578-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -550,6 +610,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>HollyJ623</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r266414378-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -568,6 +631,9 @@
     <t>Flew in from Arizona and Nevada to spend the week for the ACM awards. Booked off of Hotels.com back in January. The Reasons for booking was newly renovated, free hot breakfast and great location to festivities.  Reviews were great and price was right. Upon checking, we were told this was no longer a Best Western as of a day ago, no more free breakfast, no free coffee for the coffee maker in the room, and toiletries were given. Apparently Motel 6 doesn't offer those amenities. The beds were comfy and the room was newly renovated, but there were lamps that had bulbs falling out, lamp shade had some type of gross sticky glob on it, iron was broken and bathroom lighting was horrible. You could barely see to shower. Staff was not friendly whatsoever or helpful in trying to resolve any situations we had. All they kept saying is we are not a Best Western. Smoke alarms went off twice so far and we still have two days left to stay.   Motel 6 is horrible!!More</t>
   </si>
   <si>
+    <t>Glenn R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r257394628-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -595,6 +661,9 @@
     <t>good property convenient to mall ..bed good quality..breakfast just fair..easy in and out..courteous front desk staff..internet easy to set up..could have used extra blanket or something,but none provided in roomMore</t>
   </si>
   <si>
+    <t>Samantha R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r255157614-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -619,6 +688,9 @@
     <t>Staff was super sweet and called us by our names the entire time. The bed was probably the most comfortable I had ever slept in in a hotel! Overall wonderful hotel! Newly Remodeled and right across the street from the Parks Mall! Cowboys and Rangers stadiums are right down the street. Great hotel!More</t>
   </si>
   <si>
+    <t>814jph</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r254068126-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -643,6 +715,9 @@
     <t>Great staff. gracious and helpful. No issue that wasn't quickly and professionally resolved. Clean and well appointed lobby and rooms. Good breakfast and great location to shopping, freeways and great restaurants. Location is nicely hidden off the main drag. Caring staff who take their business seriously as great innkeepers.More</t>
   </si>
   <si>
+    <t>Krista J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r251204449-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -694,6 +769,9 @@
     <t>The room was spotless, the staff was friendly and helpful, and the room amenities, including wifi, were what they should be. One thing in this hotel's favor is that it has recently been refurbished, but even so, it is a well-maintained place. The linens were clean and tidy. We took a handicapped-accessible room partly because we had a baby with us. The bathroom thus was very large with floor space for the portable crib. There was hot food for breakfast, nothing to brag about, but expected fare for this class of hotel. There's no way to make precooked sausage patties kept in a warming pan look appetizing. A minor quibble, which I mentioned to the desk clerk, was the lack of an infant seat in the dining area. She said there had been one but it had deteriorated and not been replaced. She agreed one was needed.More</t>
   </si>
   <si>
+    <t>Linda K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r250122302-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -712,6 +790,9 @@
     <t>We had two rooms for an event in AT&amp;T stadium. They were a great value for our money - convenient and clean. The breakfast is nothing special but good enough. The rooms were a nice size and had a small refrigerator that was handy. We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>JENNI E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r249393588-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -733,6 +814,9 @@
     <t>I would definitely come back again!  The rooms were spacious and clean, the bed was comfortable, the staff was very helpful, and they had great amenities close by.  The breakfast options were just enough to get you going for day, and the lobby/eating was very clean and roomy.More</t>
   </si>
   <si>
+    <t>Lisa K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r247697007-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -751,6 +835,9 @@
     <t>We usually stay at hotels in the Hyatt or Marriot chains, but we used frequent flyer miles to stay at the Best Western while visiting Six Flags.  This Best Western is a surprisingly great value.  Ellen, at the front desk, went far out of her way to accommodate our needs.  The housekeeping staff was attentive, and the rooms were very clean.  It is clear that the décor of the rooms has been updated.  Breakfast was fine.  Noise was not an issue.  We will definitely stay here again, and will recommend it to friends.More</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r246564952-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -769,6 +856,9 @@
     <t>The staff wasn't the usually, jovial group of representatives that I'm used to from my stay at various BW's.  It may be because if the football game and the many out of towns visitors that were there and in a spirited mood about their Cowboys big victory.  But they did help me with my luggage, before check in time, so I was able to go to the game!  The day crew was exceptionally pleasant and helped their score, in my minds eye!More</t>
   </si>
   <si>
+    <t>David J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r241798659-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -796,6 +886,9 @@
     <t>In the last 2 months I have stayed at the Cooper Inn in Arlington about 30 days . The staff from the manager to the cleaning people extremely helpful and made my stay great . Next time I am in Arlington you can find me at the Cooper Inn .More</t>
   </si>
   <si>
+    <t>Les H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r235609416-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -823,6 +916,9 @@
     <t>We spent 10 nights at this hotel in October 2014 while on vacation. The staff (especially Alin) was very helpful allowing us to change rooms 2 times due to an inoperable room safe and road noise. The rooms were clean and comfortable. The staff were VERY intent on keeping the place clean and were shampooing / steam cleaning carpets on our 2nd day.The provided breakfast was nice with waffles, eggs and sausage chubs along with yogurt, fresh fruit and assorted cereals. We had no complaints here but only made the breakfast cutoff once.More</t>
   </si>
   <si>
+    <t>Theresa V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r233220346-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -847,6 +943,9 @@
     <t>For an older hotel it was recently updated, very clean and very comfortable beds.  The A/C worked great.  The shower was amazing with great temperature / water pressure.  The large garden tub was a hit.  The good location made it easy to access the stadium, shopping strip and eateries.More</t>
   </si>
   <si>
+    <t>nncantu005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r219451382-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -874,6 +973,9 @@
     <t>My new hubby and I traveled to Arlington for our honeymoon as well as to watch a couple of baseball games. I was a little hesitant to stay because of other reviews about renovations at the hotel, but chose to stay anyway. It turned out to be a great choice. The room was very nice, clean, and comfortable. The staff at the front desk was friendly and very helpful.  If we ever travel to Arlington again we will stay here.More</t>
   </si>
   <si>
+    <t>934aletheam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r219380823-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -889,6 +991,9 @@
     <t>Outside of the pool not bring available and waiting almost 24 hours for an iron, the stay was pleasant. They had painters painting the ground after we checked in, so we had to be careful leaving out room and waking to our car.  When leaving it took about 5 minutes for someone to open the door so we could hand in our key so we could make it to the airport.</t>
   </si>
   <si>
+    <t>ODennehy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r218920443-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -907,6 +1012,9 @@
     <t>My first stay at this hotel was while it was under construction. I booked through the Best Western website, and it didn’t mention that the place was in complete renovation .. when I arrived, I left and went elsewhere. This was the first time back after construction. The room was nice enough – paint etc.. – but the phone didn’t work (wouldn’t receive calls), the TV didn’t work properly. They got the first fixed, they latter never got fixed (“You should have mentioned this, Mr Denney ..”, Well actually I did and the guy I talked with said they’d fix it). Would have also been nice to have wash rags in the bath? But what really upset me more than anything: This facility was NOT available for booking on the Best Western website (due to the construction I was told). So I booked the room through AARP. When I asked about my “rewards points” I was told “You didn’t book the room through the BW website”. Explaining that doing so was not possible didn’t seem to matter, even when I called rewards customer service. So overall, wasn’t real pleased with the facility, or with customer service. To be fair, maybe the facility is having post construction issues. Added note, for Arlington TX most of the hotels are located in one area by the Parks Mall. Of the three I've stayed in, this location seemed to be the noisiest (street noise)...My first stay at this hotel was while it was under construction. I booked through the Best Western website, and it didn’t mention that the place was in complete renovation .. when I arrived, I left and went elsewhere. This was the first time back after construction. The room was nice enough – paint etc.. – but the phone didn’t work (wouldn’t receive calls), the TV didn’t work properly. They got the first fixed, they latter never got fixed (“You should have mentioned this, Mr Denney ..”, Well actually I did and the guy I talked with said they’d fix it). Would have also been nice to have wash rags in the bath? But what really upset me more than anything: This facility was NOT available for booking on the Best Western website (due to the construction I was told). So I booked the room through AARP. When I asked about my “rewards points” I was told “You didn’t book the room through the BW website”. Explaining that doing so was not possible didn’t seem to matter, even when I called rewards customer service. So overall, wasn’t real pleased with the facility, or with customer service. To be fair, maybe the facility is having post construction issues. Added note, for Arlington TX most of the hotels are located in one area by the Parks Mall. Of the three I've stayed in, this location seemed to be the noisiest (street noise) of the three, I think because the building layout along the road.More</t>
   </si>
   <si>
+    <t>958kens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r214427566-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1030,9 @@
     <t>Our recent experience was just perfect!  The hotel has been recently renovated and was very nice and clean.  The breakfast was just enough to jump start our day and the staff were there to answer every request.  The manager was very friendly and pleasant!  We highly recommend this hotel!  Thanks for a fun "stay-cation".!!</t>
   </si>
   <si>
+    <t>Larry R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r212275745-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1060,9 @@
     <t>Poor service as my request for a ground floor room was not met.   The A/C controls were not working at all. The bathroom door had a mirror ripped off and a hole in the door. the room was not very clean, The vent fan in the bathroom was louder than the television. The room remodel was unfinished. The breakfast was next to nothing.More</t>
   </si>
   <si>
+    <t>Lesleigh Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r212276074-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1075,9 @@
     <t>We have stayed at this hotel several times. The location is perfect for us, and the price is really great!  We will continue to stay at this hotel when we come to Dallas/Ft. Worth area, as we come at least once a year, and have found no better hotel than this.  They are in the processing of remodeling, and on this most recent stay, you could tell, but the remodel they have completed so far is really nice.  Once it is all completed, I think it is going to be great!</t>
   </si>
   <si>
+    <t>Larry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r209677252-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1093,9 @@
     <t>The location was excellent with good parking. Breakfast was good. Fitness center was okay. You can not beat the location. Facilities are a little worn but the location made up for it. The pool was questionable and the whirl-pool was definitely a not, but the staff was very helpful .</t>
   </si>
   <si>
+    <t>Lauren A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r202733572-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1123,9 @@
     <t>This would have been the 3rd time staying at this hotel. We traveled from Baton Rouge, LA to Arlington to attend karate seminars at a local karate school very near this hotel. The first time we stayed here we were placed in an upstairs corner room. The room appeared somewhat clean, but the bathroom door was broken and the pull out sofa was also broken. The second time we stayed here we stayed in a similar room but on the bottom floor. In the room next to us, people had the door and window smoking and they were sitting around with several bottles of liqour and smoking heavily in the hotel room. From my knowledge this is supposed to be a non smoking hotel and we could smell the cigarettes from inside our hotel room. We called the front desk, but to my knowledge nothing was done because this behavior went on all night. The last and final time we "attempted" to stay at this hotel was 4/12/14. We drove in late from Louisiana arriving in Texas around 1:00am. Needless to say we were exhausted. When we arrived, the hotel was under extreme construction. No where on the best western site did it say anything about renovations taking place at the hotel. It took almost 25 minutes for the clerk to even acknowledge my boyfriend standing at the counter because he was on the phone. When he finally did, the...This would have been the 3rd time staying at this hotel. We traveled from Baton Rouge, LA to Arlington to attend karate seminars at a local karate school very near this hotel. The first time we stayed here we were placed in an upstairs corner room. The room appeared somewhat clean, but the bathroom door was broken and the pull out sofa was also broken. The second time we stayed here we stayed in a similar room but on the bottom floor. In the room next to us, people had the door and window smoking and they were sitting around with several bottles of liqour and smoking heavily in the hotel room. From my knowledge this is supposed to be a non smoking hotel and we could smell the cigarettes from inside our hotel room. We called the front desk, but to my knowledge nothing was done because this behavior went on all night. The last and final time we "attempted" to stay at this hotel was 4/12/14. We drove in late from Louisiana arriving in Texas around 1:00am. Needless to say we were exhausted. When we arrived, the hotel was under extreme construction. No where on the best western site did it say anything about renovations taking place at the hotel. It took almost 25 minutes for the clerk to even acknowledge my boyfriend standing at the counter because he was on the phone. When he finally did, the room key was given to us and we walked up to our room. The smell of smoke instantly hit us when we openend the door. My boyfriend has asthma and is allergic to cigarette smoke. We called down to the front desk and we were told to come back down (up and down stairs) and that we would be moved to another room. So we came down and he went back and forth with someone on the phone about what room to put us in. After it a room was decided on he gave us the key. Back around the hotel and up the stairs again we entered the 2nd room. THE ROOM WAS A MESS &amp; LOOKED LIKE SOMEONE WAS STAYING IN IT! There were towels everywhere and the beds were unmade. Understandably upset we walked back down to the receptionist (In the middle of the night mind you) and told the receptionist that the room was dirty, beds unmade, and towels everywhere... His response, "was it bad?" Are you kidding me!?! It's irrelivant how bad it was. Someone was or had recently stayed in that room and it had not been cleaned. At this point we were furious and demanded a refund. We were told that a refund could not be done in the middle of the night and would have to be done the next day. We asked the receptionist to give us something in writing with his name and the date on it. The icing on the cake... He couldn't even spell my boyfriend's last name correctly.... It's Kennedy! NEVER AGAIN BEST WESTERN! THIS HOTEL NEEDS SOME SERIOUS HELP!More</t>
   </si>
   <si>
+    <t>Mary J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r202654690-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1018,6 +1141,9 @@
     <t>Hotel is undergoing renovations. Our room seems liked it was half renovated. We had a broken toilet seat and door stopper. We had no table or desk to place our items on. We had to use the ironing board as a table. The breakfast left something to be desired. I had to unplug the microwave in order to plug in the toaster. I will miss this one next time I am in town.</t>
   </si>
   <si>
+    <t>hairbiz4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r199344003-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1036,6 +1162,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Nevadagirl710</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r198004729-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1051,6 +1180,9 @@
     <t>Thought I would try a different hotel for my trip to the metroplex.  Check in staff friendly, polite, and quick.  Room was very clean, carpet was good, but you could see the wear and tear on some of the furniture.  Not a bad thing when everything else is clean.  The bed was comfy but the pillows lacled a bit to be desired.   They were a bit lumpy and mushy.  Some people probably like that but I prefer firm.  Shower head was taller than me.  :)  Water was hot.  A/C worked great.  I would definitely stay there again.</t>
   </si>
   <si>
+    <t>Louisa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r198025866-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1063,6 +1195,9 @@
     <t>The Beds were so soft and comfortable.  The lobby was being remodeled at arrival but come breakfast time you would never know it.  The breakfast offered very fresh Jimmy Dean Sausage Egg Cheese Biscuits, what a plus. Not Upscale or anything, just affordable and clean. The shower was great, very clean towels and the soap and shampoo provided was better than average. Three pillows on my queen beds rather than two, this was a nice feature.</t>
   </si>
   <si>
+    <t>heat1968</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r196382921-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1081,6 +1216,9 @@
     <t>This Best Western is conveniently located, right across from the Parks Mall, decent breakfast in the mornings also. Only problem we had was when we arrived, I was told we had a smoking room. I ONLY reserve non-smoking rooms!  The desk clerk was nice enough to find me a non-smoking, it was a handicap room, but said "I'll take it". It was clean and the beds were comfortableMore</t>
   </si>
   <si>
+    <t>philus2007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r190791260-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1099,6 +1237,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Angelo W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r190106281-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1114,6 +1255,9 @@
     <t>We had a good stay at the hotel.  The Breakfast was good, and I finally I did not have any issues with the Internet. The beds were great.  The only small issue I had was, when I booked the room to sleep for 4 people, and I only had 3 sets of towels. Needed to request more towels.  Overall, we had a Good Night sleep.</t>
   </si>
   <si>
+    <t>Jim B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r184842561-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1276,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Martha P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r183333412-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1180,6 +1327,9 @@
     <t>My wife and I stayed one night and it was ok for the price.  It's an older property and I was told it would soon be refurbished.  All rooms have outside entry and is built close to the street.  It is across from Arlington Mall so during the day there is a fair amount of road noise if you get a street side room.  The room was clean and worked for us for one night.</t>
   </si>
   <si>
+    <t>Charles William W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r176828775-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1348,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Tickfawtiger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r175516524-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1364,9 @@
   </si>
   <si>
     <t>Hotel was clean with abundant fresh towels,good AC and easy access to JerryWorld...only negative was they picked up the complimentary breakfast 20 mins. too early. Very good rates and staff was very friendly.</t>
+  </si>
+  <si>
+    <t>tulsamomma45</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r168908124-Motel_6_Arlington-Arlington_Texas.html</t>
@@ -1240,6 +1396,9 @@
 Also, we were in town for a Yankees/Rangers game.  This hotel is a good 20 minutes...You get what you pay for, and the room rate was very reasonable.  We received the rate of around $70 a night with our AAA discount. Positives:  There was hot water and the toilets flushed.Negatives:  Please note that there are not hallways, there are doors directly to the outside.  I was told we'd have rooms next to each other (2) but they weren't.  Rooms smelled odd.  Very dirty surroundings, as though they never clean the sidewalks or anything.  Saw several empty cold medicine packages and even a dirty diaper.  Beds were pretty hard, but they usually are in hotels.  The place just didn't feel clean.  I am aggravated that it even received a three star rating on this site, I don't know where these people stayed.  There was supposed to be a "full breakfast" as described on the website, and as the check-in person told us...we went down there to eat at a little before 8 on a Monday morning and there wasn't anything left except for some weird pastry things.  The last straw was last night, I saw a baby roach crawling across the bathroom counter.  Nasty.  Then I got to thinking about other bugs that live in beds and things and I just couldn't sleep!  We drove straight home today and all took showers and washed our clothes in hot water!  Also, we were in town for a Yankees/Rangers game.  This hotel is a good 20 minutes from the ballpark.More</t>
   </si>
   <si>
+    <t>Mark M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r168258609-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1417,9 @@
     <t>Besides the Funky odor in the room the room was clean and comfortable.  The biggest obstacle was the unfriendly and very militant strict reception at the front desk.  It was like I was an inconvenience to the lady....she wouldn't check me in until 3 pm (it was 2:18 pm) so I had to go kill some time. Then when I did return the room was NOT even ready and I had to wait an extra 18 minutes in the lobby to finally get a key.  Hospitality is the hotel/motel business....the desk clerk needs to take a class in human relations and hospitality care of clients.  Otherwise besides the fact that parking is limited I enjoyed my stay and had a good nights sleep.  The beds don't compare to a holiday inn, but that's why Holiday inn is NOT best western.More</t>
   </si>
   <si>
+    <t>Ruth W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r166764317-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1273,6 +1435,9 @@
     <t xml:space="preserve">Good location for all the sites in Arlington. No real complaints but ice machine needs fixing. Comfy bed. Ok breakfast. Good value. Would stay again if in area. Nice mall within walking distance and many restaurants close </t>
   </si>
   <si>
+    <t>Bo B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r160154771-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +1459,9 @@
     <t>We decided to go to Arlington to take our daughter out for her birthday (She is a student at UTA).  I booked a room online and, being in a hurry, put in the wrong date. When I arrived, the young lady at the desk (Star was her name) was unbelievably helpful in straightening out the mess I had made and was able to get us a very nice room for the night. She also took care of canceling the reservation that I had incorrectly booked. The hotel is older but well-kept, breakfast was very good, extra towels were obtained easily, and the location is very convenient (right by the mall and lots of restaurants).More</t>
   </si>
   <si>
+    <t>HectorRodriguez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r156293536-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1315,6 +1483,9 @@
     <t>Stayed at this hotel for 5 nights. The location is great, feels and looks safe, clean rooms (smelly due to the fact that probably my room used to be for smokers, and the smoke scent is still there). Maid is fast and accurate. Breakfast beyond expectations, large variety of choices, milk, cereal, coffee, bisquets and gravy, fruit, etc.Had problems with my electronic key. Would not work as expected. Went down to the front desk in the morning, and the lady sitting at the desk told me literally "Are you able to get in your room, after trying several times?" I answered yes. She responded "Well, I'm sorry but that's all I can do for you."  "If you can open the door with the electronic key, there's nothing else we can do about it". (The door lock card reader is worn out and needs to be changed). Breakfast is very busy from 6 a.m. to 10 a.m. During our stay the hotel was probably 80% full. Can you imagine a breakfast area with 4 tables? Two families took the 4 tables and relaxed after breakfast by having a family breakfast party. We waited over 35 minutes and had to leave. How can you offer a great breakfast with seating for 16 people?More</t>
   </si>
   <si>
+    <t>cap10awesome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r154528021-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1333,6 +1504,9 @@
     <t>I will start by saying that I never liked hotels with access to rooms from the street, but I only realized this when I got there since the pictures on their website were not clear. The rooms were spacious but not perfectly clean (not what you expect in a hotel at least). Employees were polite and helpful. The breakfast was decent although you had to find someone to bring more things all the time since it had very small quantities of everything. The breakfast area is very small and dirty, like the reception area. The price is ok, but I am sure I would be able to find something better on the same price.More</t>
   </si>
   <si>
+    <t>RICK T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r149517030-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1351,6 +1525,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>JIMMY B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r149392428-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1360,6 +1537,9 @@
     <t>01/10/2013</t>
   </si>
   <si>
+    <t>Beachtshirts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r147752995-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +1555,9 @@
     <t>Don't stay in room 109 is next to sprinkles system and you get horrible noise in middle night. Location is great, staff not so helpful, didn't want to print me a receipt cause it was free stay voucher even though at other locations I got one with no problems.  Their computer system is pretty bad.</t>
   </si>
   <si>
+    <t>cassandra P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r141420250-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1579,9 @@
     <t>We stayed here for two nights and payed $187.  It is worth no more than $40 a night.  It is a slum hotel.  The bathtub had no plug so we could not give our son a bath.  The fixtures were all falling apart.  There was a stain on the carpet that looked like blood. - To put it simply it was just gross.  I am actually sick to my stomach that we had to spend that much on this.  I will never be returning.  We stayed here just a year ago and were happy enough to come back and I do not know what has been going on with this hotel in that time but it has gone seriously down hill.  This truly gives best western a bad name and I would not suggest staying here unless you are used to staying in filthy conditions.More</t>
   </si>
   <si>
+    <t>miniman23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r138683780-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1414,6 +1600,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Lacey B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r137788976-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1432,6 +1621,9 @@
     <t>DO NOT stay here. Me and my family stayed three nights and discovered there were bed bugs when we woke up with itch bites marks. We even found 2 crawling on the bed. We caught two and took them up to the front desk. We then had to go to extreme measures to make sure they didn't come home with us. When we finally got ahold of the manager the next day he only refunded us one of the three days. We were upset we will never be back at this establishment and if you are brave enough to stay there(which I highly reccomend you don't) make sure to take check for bed bugs. If you take them home it could cosy you hundreds of dollars to get rid of them. Not worth it!More</t>
   </si>
   <si>
+    <t>marycg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r130698822-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1453,6 +1645,9 @@
     <t>I travel to Arlington once a year for volunteer work. I booked this place from Hotwire for 3 people/3nights. Upon check-in I was told I had 1 Queen bed/smoking room. I said I had booked 3 people and we weren't sleeping in the same bed. He said that's what you get when you book with Hotwire. You don't get to ask for bed size etc. He finally said he thought he had a room that was ready. It did have 2 beds but no bathroom door. As we had to leave to go to our assignment I didn't say anything. The next morning I asked the front desk it they could get us a door for our bathroom. She said she would look into it and see if somthing could be done. Upon returning that night we still had to bathroom door and the floor surrounding our sink/vanity area was sopping wet. OK, it's late we'll work around it. That night our neighbors in the adjoining room decided it would be a good place to have a party. After listening to this for several hours outside our room I called the front desk. He did go out and have a conversation with them about the noise but it only lasted about 3 minutes and then the party was back on louder than ever. After another hour of this I again called the front desk but now they won't answer the...I travel to Arlington once a year for volunteer work. I booked this place from Hotwire for 3 people/3nights. Upon check-in I was told I had 1 Queen bed/smoking room. I said I had booked 3 people and we weren't sleeping in the same bed. He said that's what you get when you book with Hotwire. You don't get to ask for bed size etc. He finally said he thought he had a room that was ready. It did have 2 beds but no bathroom door. As we had to leave to go to our assignment I didn't say anything. The next morning I asked the front desk it they could get us a door for our bathroom. She said she would look into it and see if somthing could be done. Upon returning that night we still had to bathroom door and the floor surrounding our sink/vanity area was sopping wet. OK, it's late we'll work around it. That night our neighbors in the adjoining room decided it would be a good place to have a party. After listening to this for several hours outside our room I called the front desk. He did go out and have a conversation with them about the noise but it only lasted about 3 minutes and then the party was back on louder than ever. After another hour of this I again called the front desk but now they won't answer the phone. The party went on until around 3 a.m. and no sleep that night. The next morning I asked the desk clerk if there wasn't something that could be done about our situation. She was very accomodating and found us a new room with a bathroom door, dry floors and no partiers. I will never stay at this hotel again. I have never been so disappointed.More</t>
   </si>
   <si>
+    <t>chalcat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r128471118-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1474,6 +1669,9 @@
     <t>It does seem a bit run down although I think they might have done some work on it recently.  We stayed three days and the room was clean and comfortable.  The breakfast was good, had a decent selection of hot items and really good coffee (I didn't bother to use the in room coffee maker).  Despite the fact that the place filled up over the weekend I never really noticed a noise problem.  Yes, the television was still the old style (not flat screen) but to tell you the truth if mine hadn't broken I'd still be using it and I didn't come to town to watch tv anyway.  It's in a great area and access to the highway was easy.  I'd stay again.More</t>
   </si>
   <si>
+    <t>Amber02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r127293187-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1492,6 +1690,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>lorik562016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r119240118-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1513,6 +1714,9 @@
     <t>Booked direct with Best Western and got a better rate than online services. Room was very clean with all amenities. Staff was very accomodating to all our requests. Breakfast was just ok, but had the basics for cereal  and toast. Very small eating area was a minor problem as both days there were more people than table space. We would definately stay here again. Lots of restaurants and shops close by. For extra quiet ask for a room on the back side. The only two negatives were the extremely noisy air conditioning units and the hotel is not completely non smoking. We had a non smoking room as did the people below us, but they were constantly smoking outside their door with the smoke going through their windows and ours.More</t>
   </si>
   <si>
+    <t>Kurt_L54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r117717726-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1532,6 +1736,9 @@
   </si>
   <si>
     <t>Modern, not too big, adequate parking (and the place was full, for the Cowboy Classic football game - LSU and Oregon).  The rooms were up to date and comfortable, the bed perfect, the AC did it's job...  I liked the location - easy to get onto the freeway system.  Dallas / Forth Worth is a hugely spread out city and really confusing for someone used to hills and such for landmarks (central Texas being pretty flat), but being here was a good central location, and it's close to a nice enclosed shopping mall and it was a good "neighborhood".   There was a very small pool, which would be a positive if traveling with children, I guess.  Didn't partake in breakfast, but it looked like cereal and some kind of breads and yogurt..  basic fuel I suppose.   I frankly don't remember what I paid - it was very reasonable, though, recollecting my searches for the Arlington area...More</t>
+  </si>
+  <si>
+    <t>luv2bamomof4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r83886579-Motel_6_Arlington-Arlington_Texas.html</t>
@@ -1559,6 +1766,9 @@
 We also found a drawer full of clothing that belonged to someone else when we first arraived in our room.  The label had the person's name on it and through...The room was very clean which was very important to us.  The brochures in the room were the only information we had about the hotel and restaurants.  It was misleading.  The restaurants listed were actually closed and/or did not deliver.  That was frustrating.  We parked on the back side of the hotel due to the location of our room.  There was a man standing by the door waiting for someone to open it with a card so he could enter.  That was very alarming.  Our vehicle was broken into the third night we were there.  The tool boxes were broken into and most all my husbands tools that he travels with were taken.  The laundry room was located in another building which was very inconvenient.  We would be gone during the day so I would need to do laundry in the evening.  I was a little intimidated going to the other building alone.  I did not feel safe.  The workout room was nice.  It would have been nicer if they would have had headphones to actually hear the television.  They said they were all broken.  So, no sound to the television that was attached on the treadmill while you walked.  Just a few details could make this so much better.  We also found a drawer full of clothing that belonged to someone else when we first arraived in our room.  The label had the person's name on it and through facebook we were able to contact the owner.  She was very very thankful to hear that someone had found the clothes.  She said they had called back to the hotel explaining they had forgotten their clothing and whoever they spoke with told them that no clothing had been found.  As far as convenience to the attractions this hotel was a great spot.More</t>
   </si>
   <si>
+    <t>thaus76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r25100543-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1577,6 +1787,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>court05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r11013935-Motel_6_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1593,6 +1806,9 @@
   </si>
   <si>
     <t>October 2007</t>
+  </si>
+  <si>
+    <t>Chadillacinpcola</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73776-r7472276-Motel_6_Arlington-Arlington_Texas.html</t>
@@ -2115,43 +2331,47 @@
       <c r="A2" t="n">
         <v>31137</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2165,50 +2385,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31137</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>69957</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2220,56 +2444,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31137</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2283,50 +2511,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31137</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2346,41 +2578,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31137</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -2399,50 +2635,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31137</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2456,50 +2696,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31137</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>45998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2517,50 +2761,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31137</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>22389</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2574,50 +2822,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31137</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2637,50 +2889,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31137</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2694,50 +2950,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31137</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2751,50 +3011,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31137</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2814,50 +3078,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31137</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>18948</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2877,50 +3145,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31137</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2934,41 +3206,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31137</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169170</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -2987,50 +3263,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31137</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3046,56 +3326,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="X17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31137</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3109,50 +3393,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31137</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169173</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3166,50 +3454,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31137</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>23372</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3223,50 +3515,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31137</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>169174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3286,50 +3582,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31137</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169175</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3343,50 +3643,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31137</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>18900</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3408,56 +3712,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31137</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>12557</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3479,56 +3787,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="X24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31137</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3550,56 +3862,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="X25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31137</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>169177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3621,56 +3937,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="X26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31137</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>169166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3688,56 +4008,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="X27" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Y27" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31137</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>2326</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3759,56 +4083,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="X28" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Y28" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31137</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>169178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>254</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3830,56 +4158,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="X29" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Y29" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>31137</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>340</v>
+      </c>
+      <c r="C30" t="s">
+        <v>262</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" t="s">
+        <v>266</v>
+      </c>
+      <c r="L30" t="s">
+        <v>267</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
         <v>235</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>236</v>
-      </c>
-      <c r="J30" t="s">
-        <v>237</v>
-      </c>
-      <c r="K30" t="s">
-        <v>238</v>
-      </c>
-      <c r="L30" t="s">
-        <v>239</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>210</v>
-      </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3897,47 +4229,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="X30" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Y30" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31137</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
@@ -3964,56 +4300,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="X31" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31137</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>18636</v>
+      </c>
+      <c r="C32" t="s">
+        <v>276</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4035,56 +4375,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="X32" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31137</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>169179</v>
+      </c>
+      <c r="C33" t="s">
+        <v>286</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4102,56 +4446,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="X33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="Y33" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31137</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>43470</v>
+      </c>
+      <c r="C34" t="s">
+        <v>296</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4173,56 +4521,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="X34" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="Y34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>31137</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>169180</v>
+      </c>
+      <c r="C35" t="s">
+        <v>305</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4240,56 +4592,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X35" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="Y35" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>31137</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>169181</v>
+      </c>
+      <c r="C36" t="s">
+        <v>315</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4313,50 +4669,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>31137</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>169182</v>
+      </c>
+      <c r="C37" t="s">
+        <v>321</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4372,56 +4732,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X37" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31137</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>169183</v>
+      </c>
+      <c r="C38" t="s">
+        <v>328</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="O38" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4445,50 +4809,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31137</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>35575</v>
+      </c>
+      <c r="C39" t="s">
+        <v>334</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="J39" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4510,56 +4878,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="X39" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="Y39" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31137</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>169184</v>
+      </c>
+      <c r="C40" t="s">
+        <v>344</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="J40" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4583,50 +4955,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31137</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>18699</v>
+      </c>
+      <c r="C41" t="s">
+        <v>349</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="J41" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="K41" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4650,50 +5026,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31137</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>81414</v>
+      </c>
+      <c r="C42" t="s">
+        <v>355</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="J42" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="K42" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="L42" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4715,56 +5095,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="X42" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="Y42" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31137</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>2163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>365</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="J43" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="K43" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4788,50 +5172,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31137</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>169185</v>
+      </c>
+      <c r="C44" t="s">
+        <v>371</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="J44" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="K44" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="O44" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4853,50 +5241,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>31137</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>122474</v>
+      </c>
+      <c r="C45" t="s">
+        <v>378</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="J45" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="K45" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="L45" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="O45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4920,50 +5312,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>31137</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>169186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>384</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="J46" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="K46" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="O46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4987,50 +5383,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>31137</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>101930</v>
+      </c>
+      <c r="C47" t="s">
+        <v>389</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="J47" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5052,56 +5452,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="X47" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="Y47" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>31137</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>169187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>396</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J48" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="K48" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5125,50 +5529,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>31137</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>169188</v>
+      </c>
+      <c r="C49" t="s">
+        <v>403</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="J49" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="K49" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5192,50 +5600,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>31137</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>18703</v>
+      </c>
+      <c r="C50" t="s">
+        <v>409</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="J50" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="K50" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="O50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5259,50 +5671,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>31137</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>86009</v>
+      </c>
+      <c r="C51" t="s">
+        <v>416</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="J51" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="K51" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="O51" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5326,50 +5742,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>31137</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>18636</v>
+      </c>
+      <c r="C52" t="s">
+        <v>276</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="J52" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="K52" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="O52" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5393,50 +5813,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>31137</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="J53" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="K53" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="L53" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="O53" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5460,50 +5884,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>31137</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>169189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>433</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="J54" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="K54" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="L54" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="O54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5527,50 +5955,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>31137</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>169190</v>
+      </c>
+      <c r="C55" t="s">
+        <v>440</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="J55" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="K55" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="L55" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="O55" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5594,50 +6026,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>31137</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>169191</v>
+      </c>
+      <c r="C56" t="s">
+        <v>446</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="J56" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="K56" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="L56" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5661,50 +6097,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>31137</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C57" t="s">
+        <v>454</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="J57" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="K57" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="L57" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="O57" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5728,41 +6168,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>31137</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>42441</v>
+      </c>
+      <c r="C58" t="s">
+        <v>461</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="J58" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="K58" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="L58" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -5791,50 +6235,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>31137</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>7063</v>
+      </c>
+      <c r="C59" t="s">
+        <v>467</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="J59" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="K59" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="L59" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5858,50 +6306,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>31137</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>169192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>475</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="J60" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="K60" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="L60" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="O60" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5925,50 +6377,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>31137</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>169193</v>
+      </c>
+      <c r="C61" t="s">
+        <v>483</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="J61" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="K61" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="L61" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -5992,50 +6448,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>31137</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>169194</v>
+      </c>
+      <c r="C62" t="s">
+        <v>490</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="J62" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="K62" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="L62" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6059,35 +6519,39 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>31137</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>169195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>497</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="J63" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -6095,10 +6559,10 @@
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6119,42 +6583,43 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>31137</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>169196</v>
+      </c>
+      <c r="C64" t="s">
+        <v>501</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="J64" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="K64" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="L64" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
@@ -6183,50 +6648,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>31137</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>169197</v>
+      </c>
+      <c r="C65" t="s">
+        <v>507</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="J65" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="K65" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="L65" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -6250,50 +6719,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>31137</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>169198</v>
+      </c>
+      <c r="C66" t="s">
+        <v>515</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="J66" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="K66" t="s">
-        <v>457</v>
+        <v>519</v>
       </c>
       <c r="L66" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6317,50 +6790,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>31137</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>50707</v>
+      </c>
+      <c r="C67" t="s">
+        <v>522</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>461</v>
+        <v>524</v>
       </c>
       <c r="J67" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="K67" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="L67" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6384,50 +6861,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>31137</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>169199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>529</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="J68" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="K68" t="s">
-        <v>469</v>
+        <v>533</v>
       </c>
       <c r="L68" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="O68" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -6451,50 +6932,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>31137</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>169200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>537</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
       <c r="J69" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="K69" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
       <c r="L69" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6518,50 +7003,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>31137</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>169201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>545</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="J70" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="K70" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="L70" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -6581,50 +7070,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>31137</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>169202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>552</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="J71" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="K71" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="L71" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="O71" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6648,50 +7141,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>31137</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>169203</v>
+      </c>
+      <c r="C72" t="s">
+        <v>560</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="J72" t="s">
-        <v>495</v>
+        <v>563</v>
       </c>
       <c r="K72" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="L72" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="O72" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6711,50 +7208,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>499</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>31137</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>169204</v>
+      </c>
+      <c r="C73" t="s">
+        <v>568</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="J73" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
       <c r="K73" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="L73" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -6778,50 +7279,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>31137</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>169205</v>
+      </c>
+      <c r="C74" t="s">
+        <v>576</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>508</v>
+        <v>578</v>
       </c>
       <c r="J74" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
       <c r="K74" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="L74" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6845,50 +7350,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>31137</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>169206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>583</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
       <c r="J75" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="K75" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="L75" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>518</v>
+        <v>589</v>
       </c>
       <c r="O75" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6912,50 +7421,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>31137</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>169207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>590</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="J76" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="K76" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="L76" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>524</v>
+        <v>596</v>
       </c>
       <c r="O76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -6979,7 +7492,7 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
